--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325296.1703089145</v>
+        <v>319897.760337136</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.12715935579235</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>8.091688641907758</v>
@@ -670,10 +670,10 @@
         <v>8.091688641907758</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.03641654712531528</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>5.806845464008482</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>7.505703897832523</v>
@@ -785,10 +785,10 @@
         <v>5.040345688132874</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>8.091688641907758</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>8.091688641907758</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>2.672798411734712</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.728415476776942</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="D5" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="F5" t="n">
-        <v>18.21830727030009</v>
+        <v>7.15998885509158</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4.089093774433805</v>
       </c>
       <c r="C6" t="n">
-        <v>14.54249424260933</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="E6" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.44271547525859</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.888458418784959</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.504190801070983</v>
+        <v>1.504190801070976</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.34053384443211</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5891238419305855</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.5891238419305923</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>4.323301717659193</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>17.79601311665963</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.03700156004394</v>
       </c>
       <c r="J9" t="n">
         <v>3.775148425455178</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.183833028195925</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>362.9363804469288</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>362.9363804469288</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>214.5503126495774</v>
       </c>
       <c r="F11" t="n">
-        <v>362.9363804469287</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.46645473176487</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.4044229297792</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6560087652268</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>362.9363804469287</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>258.2297688878055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.34175259801627</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>45.39144550989351</v>
+        <v>45.3914455098935</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>66.18107509214927</v>
       </c>
       <c r="T12" t="n">
-        <v>137.3515246445759</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>64.52644663931804</v>
+        <v>170.1827846647915</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -1514,10 +1514,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X12" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="13">
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.55212597767395</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.947615862892</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>79.32031935561108</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.48646004136225</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.1620133012059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.6348289315986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469288</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>356.4882808475918</v>
       </c>
       <c r="D14" t="n">
-        <v>362.9363804469287</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.46645473176487</v>
+        <v>70.46645473176486</v>
       </c>
       <c r="T14" t="n">
-        <v>212.4044229297792</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.6560087652268</v>
       </c>
       <c r="V14" t="n">
-        <v>144.0838579178125</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>362.9363804469288</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>18.44545087164559</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>45.39144550989351</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.19629274695493</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>137.3515246445759</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>182.8697587599179</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X15" t="n">
         <v>161.8425727710037</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.1620133012059</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.1772993036271</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>43.25997197767756</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>39.55146919843005</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>362.9363804469289</v>
       </c>
       <c r="E17" t="n">
-        <v>146.8318408801319</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>362.9363804469287</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469289</v>
       </c>
       <c r="H17" t="n">
         <v>280.1228946992246</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6560087652268</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>362.9363804469289</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>45.39144550989351</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>137.3515246445759</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>182.8697587599179</v>
       </c>
       <c r="V18" t="n">
-        <v>202.9234074721264</v>
+        <v>71.36965575331308</v>
       </c>
       <c r="W18" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>101.6361798032785</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>136.6078067650159</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>161.8338015635562</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>128.1887708386988</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>362.9363804469287</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>319.6743638976546</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>319.6743638976547</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469289</v>
       </c>
       <c r="X20" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469289</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>362.9363804469289</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>14.91238505411229</v>
       </c>
       <c r="G21" t="n">
-        <v>29.7523457498372</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>182.8697587599179</v>
       </c>
       <c r="V21" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>194.556163395115</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.947615862892</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.1620133012059</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3473248794723</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>178.2562967503057</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>134.49399246568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>213.1674247715112</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -2332,7 +2332,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.012519220714</v>
+        <v>235.5777518321359</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T23" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T24" t="n">
-        <v>135.5372539824025</v>
+        <v>135.5372539824022</v>
       </c>
       <c r="U24" t="n">
         <v>182.8401460722872</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>95.92944994037917</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>266.2437198118332</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2569,10 +2569,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
-        <v>286.8292137024468</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>172.7922081945534</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>91.89163974602971</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H27" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570793</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.7775958326054</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>64.81358073549039</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>245.1356656746667</v>
       </c>
       <c r="E29" t="n">
-        <v>243.3637526424316</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T30" t="n">
         <v>135.5372539824022</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.34868441954006</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.5702563680571</v>
@@ -3006,7 +3006,7 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>70.34868441954006</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5887081042933</v>
+        <v>110.1959194966924</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -3097,7 +3097,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>344.1973533467124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,7 +3122,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>91.8916397460297</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H33" t="n">
         <v>41.04430296570798</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>85.93802506833823</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>159.3498795498088</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.6306264556749</v>
+        <v>117.9408232065734</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3334,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3398,7 +3398,7 @@
         <v>57.82042628441737</v>
       </c>
       <c r="T36" t="n">
-        <v>135.5372539824023</v>
+        <v>135.5372539824022</v>
       </c>
       <c r="U36" t="n">
         <v>182.8401460722872</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>150.6005833220306</v>
       </c>
       <c r="W37" t="n">
-        <v>79.14755213949907</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3505,19 +3505,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>335.5346762711141</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>384.0015345497111</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>91.8916397460297</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H39" t="n">
         <v>41.04430296570798</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>85.19585460367271</v>
+        <v>271.2612705660952</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>133.056340268472</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>351.1968134446172</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E42" t="n">
-        <v>103.6549143897924</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F42" t="n">
         <v>92.70937201392488</v>
@@ -3836,7 +3836,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H42" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>122.7751384479239</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>34.73120273434481</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>118.1973364556816</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>107.7885285939352</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T45" t="n">
-        <v>135.5372539824023</v>
+        <v>135.5372539824022</v>
       </c>
       <c r="U45" t="n">
         <v>182.8401460722872</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.7471289435676</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>48.6211135017879</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,55 +4306,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.16760370319432</v>
+        <v>25.20438809422998</v>
       </c>
       <c r="C2" t="n">
-        <v>16.99418083258042</v>
+        <v>25.20438809422998</v>
       </c>
       <c r="D2" t="n">
-        <v>8.820757961966519</v>
+        <v>17.03096522361609</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6473350913526207</v>
+        <v>8.85754235300219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6473350913526207</v>
+        <v>0.6841194823882927</v>
       </c>
       <c r="G2" t="n">
         <v>0.6473350913526207</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6473350913526207</v>
+        <v>7.543110568106792</v>
       </c>
       <c r="L2" t="n">
-        <v>3.221710050338442</v>
+        <v>10.11748552709261</v>
       </c>
       <c r="M2" t="n">
-        <v>11.23248180582712</v>
+        <v>18.12825728258129</v>
       </c>
       <c r="N2" t="n">
-        <v>19.2432535613158</v>
+        <v>26.13902903806998</v>
       </c>
       <c r="O2" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="P2" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="R2" t="n">
-        <v>25.47097909087686</v>
+        <v>32.36675456763103</v>
       </c>
       <c r="S2" t="n">
         <v>32.36675456763103</v>
@@ -4372,10 +4372,10 @@
         <v>32.36675456763103</v>
       </c>
       <c r="X2" t="n">
-        <v>32.36675456763103</v>
+        <v>26.5012540989356</v>
       </c>
       <c r="Y2" t="n">
-        <v>32.36675456763103</v>
+        <v>25.20438809422998</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.40227705068624</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="C3" t="n">
-        <v>16.40227705068624</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="D3" t="n">
-        <v>16.40227705068624</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="E3" t="n">
-        <v>16.40227705068624</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="F3" t="n">
-        <v>16.40227705068624</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="G3" t="n">
-        <v>16.40227705068624</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="H3" t="n">
-        <v>16.40227705068624</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="I3" t="n">
         <v>8.228854180072343</v>
@@ -4415,16 +4415,16 @@
         <v>0.6473350913526207</v>
       </c>
       <c r="L3" t="n">
-        <v>8.174748029065183</v>
+        <v>3.664206143180497</v>
       </c>
       <c r="M3" t="n">
-        <v>16.18551978455386</v>
+        <v>11.67497789866918</v>
       </c>
       <c r="N3" t="n">
-        <v>24.19629154004254</v>
+        <v>19.68574965415786</v>
       </c>
       <c r="O3" t="n">
-        <v>32.20706329553123</v>
+        <v>27.69652140964654</v>
       </c>
       <c r="P3" t="n">
         <v>32.36675456763103</v>
@@ -4433,28 +4433,28 @@
         <v>27.27549629678975</v>
       </c>
       <c r="R3" t="n">
-        <v>27.27549629678975</v>
+        <v>19.10207342617585</v>
       </c>
       <c r="S3" t="n">
-        <v>27.27549629678975</v>
+        <v>10.92865055556195</v>
       </c>
       <c r="T3" t="n">
-        <v>27.27549629678975</v>
+        <v>10.92865055556195</v>
       </c>
       <c r="U3" t="n">
-        <v>27.27549629678975</v>
+        <v>10.92865055556195</v>
       </c>
       <c r="V3" t="n">
-        <v>19.10207342617585</v>
+        <v>10.92865055556195</v>
       </c>
       <c r="W3" t="n">
-        <v>16.40227705068624</v>
+        <v>10.92865055556195</v>
       </c>
       <c r="X3" t="n">
-        <v>16.40227705068624</v>
+        <v>8.228854180072343</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.40227705068624</v>
+        <v>8.228854180072343</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.0888080335201</v>
+        <v>63.89676828464615</v>
       </c>
       <c r="C5" t="n">
-        <v>38.26212573374541</v>
+        <v>45.49443770858543</v>
       </c>
       <c r="D5" t="n">
-        <v>19.85979515768471</v>
+        <v>27.09210713252471</v>
       </c>
       <c r="E5" t="n">
-        <v>19.85979515768471</v>
+        <v>8.68977655646399</v>
       </c>
       <c r="F5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K5" t="n">
-        <v>5.219099475992257</v>
+        <v>5.219099475992287</v>
       </c>
       <c r="L5" t="n">
-        <v>15.88227649088178</v>
+        <v>15.88227649088184</v>
       </c>
       <c r="M5" t="n">
-        <v>32.89339907886388</v>
+        <v>32.89339907886392</v>
       </c>
       <c r="N5" t="n">
-        <v>50.92952327646097</v>
+        <v>50.92952327646101</v>
       </c>
       <c r="O5" t="n">
-        <v>65.79354395927295</v>
+        <v>65.79354395927301</v>
       </c>
       <c r="P5" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q5" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="R5" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="S5" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="T5" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="U5" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="V5" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="W5" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="X5" t="n">
-        <v>65.19363428935169</v>
+        <v>65.19363428935176</v>
       </c>
       <c r="Y5" t="n">
-        <v>63.89676828464608</v>
+        <v>63.89676828464615</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.54918328153252</v>
+        <v>53.74815997015308</v>
       </c>
       <c r="C6" t="n">
-        <v>19.85979515768471</v>
+        <v>35.34582939409236</v>
       </c>
       <c r="D6" t="n">
-        <v>19.85979515768471</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="E6" t="n">
-        <v>1.457464581624007</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="F6" t="n">
-        <v>1.457464581624007</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="G6" t="n">
-        <v>1.457464581624007</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="H6" t="n">
-        <v>1.457464581624007</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="I6" t="n">
-        <v>1.457464581624007</v>
+        <v>6.395301368275483</v>
       </c>
       <c r="J6" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K6" t="n">
-        <v>5.886021080118643</v>
+        <v>5.886021080118655</v>
       </c>
       <c r="L6" t="n">
-        <v>19.36817474787377</v>
+        <v>19.36817474787379</v>
       </c>
       <c r="M6" t="n">
-        <v>37.40429894547086</v>
+        <v>37.40429894547091</v>
       </c>
       <c r="N6" t="n">
-        <v>46.70753313916128</v>
+        <v>46.70753313916133</v>
       </c>
       <c r="O6" t="n">
-        <v>62.96599962173941</v>
+        <v>62.96599962173946</v>
       </c>
       <c r="P6" t="n">
-        <v>72.87322908120038</v>
+        <v>72.87322908120045</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.35384443365393</v>
+        <v>71.353844433654</v>
       </c>
       <c r="R6" t="n">
-        <v>71.35384443365393</v>
+        <v>57.87855772210641</v>
       </c>
       <c r="S6" t="n">
-        <v>71.35384443365393</v>
+        <v>57.87855772210641</v>
       </c>
       <c r="T6" t="n">
-        <v>52.95151385759323</v>
+        <v>57.87855772210641</v>
       </c>
       <c r="U6" t="n">
-        <v>52.95151385759323</v>
+        <v>57.87855772210641</v>
       </c>
       <c r="V6" t="n">
-        <v>34.54918328153252</v>
+        <v>57.87855772210641</v>
       </c>
       <c r="W6" t="n">
-        <v>34.54918328153252</v>
+        <v>57.87855772210641</v>
       </c>
       <c r="X6" t="n">
-        <v>34.54918328153252</v>
+        <v>57.87855772210641</v>
       </c>
       <c r="Y6" t="n">
-        <v>34.54918328153252</v>
+        <v>57.87855772210641</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="C7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="D7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="E7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="F7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="L7" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="M7" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="N7" t="n">
-        <v>2.05253916943268</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="O7" t="n">
-        <v>2.05253916943268</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="P7" t="n">
-        <v>2.05253916943268</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05253916943268</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05253916943268</v>
+        <v>2.052539169432688</v>
       </c>
       <c r="S7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="T7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="U7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="W7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="X7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624009</v>
       </c>
     </row>
     <row r="8">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.06102970653605</v>
+        <v>81.30258412788264</v>
       </c>
       <c r="C9" t="n">
-        <v>5.694058274557063</v>
+        <v>57.55539932076711</v>
       </c>
       <c r="D9" t="n">
-        <v>5.694058274557063</v>
+        <v>57.55539932076711</v>
       </c>
       <c r="E9" t="n">
-        <v>5.694058274557063</v>
+        <v>39.57962849585839</v>
       </c>
       <c r="F9" t="n">
-        <v>5.694058274557063</v>
+        <v>15.83244368874286</v>
       </c>
       <c r="G9" t="n">
-        <v>5.694058274557063</v>
+        <v>15.83244368874286</v>
       </c>
       <c r="H9" t="n">
-        <v>5.694058274557063</v>
+        <v>15.83244368874286</v>
       </c>
       <c r="I9" t="n">
         <v>5.694058274557063</v>
@@ -4892,10 +4892,10 @@
         <v>24.2082790785488</v>
       </c>
       <c r="M9" t="n">
-        <v>46.04269444771658</v>
+        <v>39.59522696312115</v>
       </c>
       <c r="N9" t="n">
-        <v>69.31731027717052</v>
+        <v>62.86984279257508</v>
       </c>
       <c r="O9" t="n">
         <v>81.90393668038412</v>
@@ -4916,19 +4916,19 @@
         <v>81.30258412788264</v>
       </c>
       <c r="U9" t="n">
-        <v>57.55539932076711</v>
+        <v>81.30258412788264</v>
       </c>
       <c r="V9" t="n">
-        <v>33.80821451365158</v>
+        <v>81.30258412788264</v>
       </c>
       <c r="W9" t="n">
-        <v>33.80821451365158</v>
+        <v>81.30258412788264</v>
       </c>
       <c r="X9" t="n">
-        <v>10.06102970653605</v>
+        <v>81.30258412788264</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.06102970653605</v>
+        <v>81.30258412788264</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="C10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="D10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="E10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="F10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J10" t="n">
         <v>1.88077703672355</v>
@@ -4989,25 +4989,25 @@
         <v>5.096769994497212</v>
       </c>
       <c r="S10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="T10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="U10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="V10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="W10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="X10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.096769994497212</v>
+        <v>1.88077703672355</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>395.6373149276015</v>
+        <v>978.9572069442745</v>
       </c>
       <c r="C11" t="n">
-        <v>395.6373149276015</v>
+        <v>612.3548024524273</v>
       </c>
       <c r="D11" t="n">
-        <v>395.6373149276015</v>
+        <v>245.75239796058</v>
       </c>
       <c r="E11" t="n">
-        <v>395.6373149276015</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="F11" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="G11" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="H11" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="I11" t="n">
-        <v>49.86523077302945</v>
+        <v>49.86523077302957</v>
       </c>
       <c r="J11" t="n">
-        <v>141.8946578048361</v>
+        <v>141.8946578048363</v>
       </c>
       <c r="K11" t="n">
-        <v>288.0679219725718</v>
+        <v>288.0679219725719</v>
       </c>
       <c r="L11" t="n">
-        <v>475.4053179987476</v>
+        <v>475.4053179987477</v>
       </c>
       <c r="M11" t="n">
-        <v>689.0005507143569</v>
+        <v>689.0005507143571</v>
       </c>
       <c r="N11" t="n">
-        <v>906.8017214638057</v>
+        <v>906.801721463806</v>
       </c>
       <c r="O11" t="n">
         <v>1110.29821093573</v>
@@ -5068,25 +5068,25 @@
         <v>1451.745521787715</v>
       </c>
       <c r="S11" t="n">
-        <v>1380.567284684922</v>
+        <v>1451.745521787715</v>
       </c>
       <c r="T11" t="n">
-        <v>1380.567284684922</v>
+        <v>1237.195599636423</v>
       </c>
       <c r="U11" t="n">
-        <v>1380.567284684922</v>
+        <v>978.9572069442745</v>
       </c>
       <c r="V11" t="n">
-        <v>1023.077869811171</v>
+        <v>978.9572069442745</v>
       </c>
       <c r="W11" t="n">
-        <v>656.4754653193243</v>
+        <v>978.9572069442745</v>
       </c>
       <c r="X11" t="n">
-        <v>656.4754653193243</v>
+        <v>978.9572069442745</v>
       </c>
       <c r="Y11" t="n">
-        <v>395.6373149276015</v>
+        <v>978.9572069442745</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168.1593529689965</v>
+        <v>286.0365891948338</v>
       </c>
       <c r="C12" t="n">
-        <v>168.1593529689965</v>
+        <v>168.5306857123385</v>
       </c>
       <c r="D12" t="n">
-        <v>168.1593529689965</v>
+        <v>168.5306857123385</v>
       </c>
       <c r="E12" t="n">
-        <v>168.1593529689965</v>
+        <v>168.5306857123385</v>
       </c>
       <c r="F12" t="n">
-        <v>168.1593529689965</v>
+        <v>74.8848553952427</v>
       </c>
       <c r="G12" t="n">
         <v>74.8848553952427</v>
       </c>
       <c r="H12" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="I12" t="n">
-        <v>39.32059938368414</v>
+        <v>39.32059938368415</v>
       </c>
       <c r="J12" t="n">
-        <v>91.07479552862546</v>
+        <v>91.07479552862549</v>
       </c>
       <c r="K12" t="n">
-        <v>192.2311190452096</v>
+        <v>192.2311190452097</v>
       </c>
       <c r="L12" t="n">
-        <v>335.7756924166483</v>
+        <v>335.7756924166484</v>
       </c>
       <c r="M12" t="n">
-        <v>506.4309300589891</v>
+        <v>506.4309300589892</v>
       </c>
       <c r="N12" t="n">
-        <v>683.9443088400235</v>
+        <v>683.9443088400237</v>
       </c>
       <c r="O12" t="n">
-        <v>842.7236536513709</v>
+        <v>842.7236536513713</v>
       </c>
       <c r="P12" t="n">
-        <v>967.0164528322535</v>
+        <v>967.0164528322539</v>
       </c>
       <c r="Q12" t="n">
         <v>1041.991028069201</v>
@@ -5147,25 +5147,25 @@
         <v>1065.975367360917</v>
       </c>
       <c r="S12" t="n">
-        <v>1065.975367360917</v>
+        <v>999.1257965607665</v>
       </c>
       <c r="T12" t="n">
-        <v>927.2364535785171</v>
+        <v>999.1257965607665</v>
       </c>
       <c r="U12" t="n">
-        <v>862.058224649913</v>
+        <v>827.2239938690579</v>
       </c>
       <c r="V12" t="n">
-        <v>657.0850857891792</v>
+        <v>622.2508550083242</v>
       </c>
       <c r="W12" t="n">
-        <v>460.5637086223963</v>
+        <v>425.7294778415414</v>
       </c>
       <c r="X12" t="n">
-        <v>297.0863623890592</v>
+        <v>425.7294778415414</v>
       </c>
       <c r="Y12" t="n">
-        <v>297.0863623890592</v>
+        <v>286.0365891948338</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.1564451383918</v>
+        <v>214.3881850221845</v>
       </c>
       <c r="C13" t="n">
-        <v>109.1564451383918</v>
+        <v>214.3881850221845</v>
       </c>
       <c r="D13" t="n">
-        <v>109.1564451383918</v>
+        <v>214.3881850221845</v>
       </c>
       <c r="E13" t="n">
-        <v>109.1564451383918</v>
+        <v>194.6385628225139</v>
       </c>
       <c r="F13" t="n">
-        <v>109.1564451383918</v>
+        <v>194.6385628225139</v>
       </c>
       <c r="G13" t="n">
-        <v>109.1564451383918</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="H13" t="n">
-        <v>109.1564451383918</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="I13" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="J13" t="n">
-        <v>53.87488472994727</v>
+        <v>53.87488472994728</v>
       </c>
       <c r="K13" t="n">
-        <v>107.5129892737759</v>
+        <v>107.512989273776</v>
       </c>
       <c r="L13" t="n">
         <v>181.0109882634347</v>
       </c>
       <c r="M13" t="n">
-        <v>259.0337940079584</v>
+        <v>259.0337940079585</v>
       </c>
       <c r="N13" t="n">
-        <v>336.4782397811395</v>
+        <v>336.4782397811396</v>
       </c>
       <c r="O13" t="n">
-        <v>404.7098432503367</v>
+        <v>404.7098432503369</v>
       </c>
       <c r="P13" t="n">
-        <v>459.9961970826225</v>
+        <v>459.9961970826226</v>
       </c>
       <c r="Q13" t="n">
-        <v>489.2405888496714</v>
+        <v>489.2405888496715</v>
       </c>
       <c r="R13" t="n">
-        <v>471.5774978988004</v>
+        <v>489.2405888496715</v>
       </c>
       <c r="S13" t="n">
-        <v>312.8279895137439</v>
+        <v>489.2405888496715</v>
       </c>
       <c r="T13" t="n">
-        <v>312.8279895137439</v>
+        <v>489.2405888496715</v>
       </c>
       <c r="U13" t="n">
-        <v>312.8279895137439</v>
+        <v>489.2405888496715</v>
       </c>
       <c r="V13" t="n">
-        <v>312.8279895137439</v>
+        <v>489.2405888496715</v>
       </c>
       <c r="W13" t="n">
-        <v>312.8279895137439</v>
+        <v>214.3881850221845</v>
       </c>
       <c r="X13" t="n">
-        <v>312.8279895137439</v>
+        <v>214.3881850221845</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.1564451383918</v>
+        <v>214.3881850221845</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>395.6373149276015</v>
+        <v>389.1240830090794</v>
       </c>
       <c r="C14" t="n">
-        <v>395.6373149276015</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="D14" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="E14" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="F14" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="G14" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="H14" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="I14" t="n">
-        <v>49.86523077302923</v>
+        <v>49.86523077302948</v>
       </c>
       <c r="J14" t="n">
-        <v>141.894657804836</v>
+        <v>141.8946578048362</v>
       </c>
       <c r="K14" t="n">
-        <v>288.0679219725715</v>
+        <v>288.0679219725716</v>
       </c>
       <c r="L14" t="n">
-        <v>475.4053179987473</v>
+        <v>475.4053179987475</v>
       </c>
       <c r="M14" t="n">
-        <v>689.0005507143566</v>
+        <v>689.0005507143568</v>
       </c>
       <c r="N14" t="n">
-        <v>906.8017214638054</v>
+        <v>906.8017214638057</v>
       </c>
       <c r="O14" t="n">
         <v>1110.29821093573</v>
@@ -5308,22 +5308,22 @@
         <v>1380.567284684922</v>
       </c>
       <c r="T14" t="n">
-        <v>1166.01736253363</v>
+        <v>1380.567284684922</v>
       </c>
       <c r="U14" t="n">
-        <v>907.7789698414815</v>
+        <v>1122.328891992774</v>
       </c>
       <c r="V14" t="n">
-        <v>762.2397194194486</v>
+        <v>1122.328891992774</v>
       </c>
       <c r="W14" t="n">
-        <v>762.2397194194486</v>
+        <v>755.7264875009266</v>
       </c>
       <c r="X14" t="n">
-        <v>762.2397194194486</v>
+        <v>755.7264875009266</v>
       </c>
       <c r="Y14" t="n">
-        <v>762.2397194194486</v>
+        <v>755.7264875009266</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>297.0926926048007</v>
+        <v>47.66667899297207</v>
       </c>
       <c r="C15" t="n">
-        <v>179.5867891223055</v>
+        <v>47.66667899297207</v>
       </c>
       <c r="D15" t="n">
-        <v>179.5867891223055</v>
+        <v>47.66667899297207</v>
       </c>
       <c r="E15" t="n">
-        <v>74.8848553952427</v>
+        <v>47.66667899297207</v>
       </c>
       <c r="F15" t="n">
-        <v>74.8848553952427</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="G15" t="n">
-        <v>74.8848553952427</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="H15" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="I15" t="n">
-        <v>39.32059938368414</v>
+        <v>39.32059938368415</v>
       </c>
       <c r="J15" t="n">
-        <v>91.07479552862546</v>
+        <v>91.07479552862549</v>
       </c>
       <c r="K15" t="n">
-        <v>192.2311190452096</v>
+        <v>192.2311190452097</v>
       </c>
       <c r="L15" t="n">
-        <v>335.7756924166483</v>
+        <v>335.7756924166484</v>
       </c>
       <c r="M15" t="n">
-        <v>506.4309300589891</v>
+        <v>506.4309300589892</v>
       </c>
       <c r="N15" t="n">
-        <v>683.9443088400235</v>
+        <v>683.9443088400237</v>
       </c>
       <c r="O15" t="n">
-        <v>842.7236536513709</v>
+        <v>842.7236536513713</v>
       </c>
       <c r="P15" t="n">
-        <v>967.0164528322535</v>
+        <v>967.0164528322539</v>
       </c>
       <c r="Q15" t="n">
         <v>1041.991028069201</v>
@@ -5384,25 +5384,25 @@
         <v>1065.975367360917</v>
       </c>
       <c r="S15" t="n">
-        <v>1052.645778727629</v>
+        <v>1065.975367360917</v>
       </c>
       <c r="T15" t="n">
-        <v>913.9068649452292</v>
+        <v>1065.975367360917</v>
       </c>
       <c r="U15" t="n">
-        <v>729.1899369049081</v>
+        <v>881.2584393205962</v>
       </c>
       <c r="V15" t="n">
-        <v>729.1899369049081</v>
+        <v>676.2853004598624</v>
       </c>
       <c r="W15" t="n">
-        <v>729.1899369049081</v>
+        <v>479.7639232930795</v>
       </c>
       <c r="X15" t="n">
-        <v>565.712590671571</v>
+        <v>316.2865770597424</v>
       </c>
       <c r="Y15" t="n">
-        <v>426.0197020248634</v>
+        <v>176.5936884130348</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="C16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="D16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="E16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="F16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="G16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="H16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="I16" t="n">
-        <v>29.03491043575429</v>
+        <v>29.0349104357543</v>
       </c>
       <c r="J16" t="n">
-        <v>53.87488472994727</v>
+        <v>53.8748847299473</v>
       </c>
       <c r="K16" t="n">
-        <v>107.5129892737759</v>
+        <v>107.512989273776</v>
       </c>
       <c r="L16" t="n">
-        <v>181.0109882634347</v>
+        <v>181.0109882634348</v>
       </c>
       <c r="M16" t="n">
-        <v>259.0337940079584</v>
+        <v>259.0337940079585</v>
       </c>
       <c r="N16" t="n">
-        <v>336.4782397811395</v>
+        <v>336.4782397811396</v>
       </c>
       <c r="O16" t="n">
-        <v>404.7098432503367</v>
+        <v>404.7098432503369</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9961970826225</v>
+        <v>459.9961970826226</v>
       </c>
       <c r="Q16" t="n">
-        <v>489.2405888496714</v>
+        <v>489.2405888496716</v>
       </c>
       <c r="R16" t="n">
-        <v>489.2405888496714</v>
+        <v>489.2405888496716</v>
       </c>
       <c r="S16" t="n">
-        <v>489.2405888496714</v>
+        <v>330.491080464615</v>
       </c>
       <c r="T16" t="n">
-        <v>489.2405888496714</v>
+        <v>219.20087914782</v>
       </c>
       <c r="U16" t="n">
-        <v>489.2405888496714</v>
+        <v>219.20087914782</v>
       </c>
       <c r="V16" t="n">
-        <v>489.2405888496714</v>
+        <v>219.20087914782</v>
       </c>
       <c r="W16" t="n">
-        <v>489.2405888496714</v>
+        <v>219.20087914782</v>
       </c>
       <c r="X16" t="n">
-        <v>445.5436474580779</v>
+        <v>219.20087914782</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.2008791478199</v>
+        <v>219.20087914782</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1193.507129095566</v>
+        <v>1045.192138307555</v>
       </c>
       <c r="C17" t="n">
-        <v>1193.507129095566</v>
+        <v>1045.192138307555</v>
       </c>
       <c r="D17" t="n">
-        <v>1193.507129095566</v>
+        <v>678.5897338157074</v>
       </c>
       <c r="E17" t="n">
-        <v>1045.192138307554</v>
+        <v>678.5897338157074</v>
       </c>
       <c r="F17" t="n">
-        <v>678.5897338157072</v>
+        <v>678.5897338157074</v>
       </c>
       <c r="G17" t="n">
         <v>311.98732932386</v>
       </c>
       <c r="H17" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="I17" t="n">
-        <v>49.86523077302923</v>
+        <v>49.86523077302945</v>
       </c>
       <c r="J17" t="n">
-        <v>141.8946578048359</v>
+        <v>141.8946578048362</v>
       </c>
       <c r="K17" t="n">
-        <v>288.0679219725715</v>
+        <v>288.0679219725719</v>
       </c>
       <c r="L17" t="n">
-        <v>475.4053179987474</v>
+        <v>475.4053179987477</v>
       </c>
       <c r="M17" t="n">
-        <v>689.0005507143567</v>
+        <v>689.000550714357</v>
       </c>
       <c r="N17" t="n">
-        <v>906.8017214638055</v>
+        <v>906.801721463806</v>
       </c>
       <c r="O17" t="n">
-        <v>1110.29821093573</v>
+        <v>1110.298210935731</v>
       </c>
       <c r="P17" t="n">
         <v>1278.37134400276</v>
@@ -5548,19 +5548,19 @@
         <v>1451.745521787715</v>
       </c>
       <c r="U17" t="n">
-        <v>1193.507129095566</v>
+        <v>1451.745521787715</v>
       </c>
       <c r="V17" t="n">
-        <v>1193.507129095566</v>
+        <v>1451.745521787715</v>
       </c>
       <c r="W17" t="n">
-        <v>1193.507129095566</v>
+        <v>1451.745521787715</v>
       </c>
       <c r="X17" t="n">
-        <v>1193.507129095566</v>
+        <v>1451.745521787715</v>
       </c>
       <c r="Y17" t="n">
-        <v>1193.507129095566</v>
+        <v>1085.143117295868</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>460.6550098220404</v>
+        <v>344.0266027200603</v>
       </c>
       <c r="C18" t="n">
-        <v>460.6550098220404</v>
+        <v>226.5206992375651</v>
       </c>
       <c r="D18" t="n">
-        <v>460.6550098220404</v>
+        <v>122.6807407528502</v>
       </c>
       <c r="E18" t="n">
-        <v>460.6550098220404</v>
+        <v>122.6807407528502</v>
       </c>
       <c r="F18" t="n">
-        <v>460.6550098220404</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="G18" t="n">
-        <v>460.6550098220404</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="H18" t="n">
-        <v>414.8050648625519</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="I18" t="n">
-        <v>425.0907538104818</v>
+        <v>39.32059938368416</v>
       </c>
       <c r="J18" t="n">
-        <v>476.8449499554231</v>
+        <v>91.0747955286255</v>
       </c>
       <c r="K18" t="n">
-        <v>578.0012734720073</v>
+        <v>192.2311190452097</v>
       </c>
       <c r="L18" t="n">
-        <v>721.545846843446</v>
+        <v>335.7756924166485</v>
       </c>
       <c r="M18" t="n">
-        <v>892.2010844857869</v>
+        <v>506.4309300589894</v>
       </c>
       <c r="N18" t="n">
-        <v>1069.714463266821</v>
+        <v>683.9443088400238</v>
       </c>
       <c r="O18" t="n">
-        <v>1228.493808078169</v>
+        <v>842.7236536513714</v>
       </c>
       <c r="P18" t="n">
-        <v>1352.786607259051</v>
+        <v>967.016452832254</v>
       </c>
       <c r="Q18" t="n">
-        <v>1427.761182495998</v>
+        <v>1041.991028069201</v>
       </c>
       <c r="R18" t="n">
-        <v>1451.745521787715</v>
+        <v>1065.975367360918</v>
       </c>
       <c r="S18" t="n">
-        <v>1451.745521787715</v>
+        <v>1065.975367360918</v>
       </c>
       <c r="T18" t="n">
-        <v>1313.006608005315</v>
+        <v>1065.975367360918</v>
       </c>
       <c r="U18" t="n">
-        <v>1128.289679964994</v>
+        <v>881.2584393205964</v>
       </c>
       <c r="V18" t="n">
-        <v>923.3165411042598</v>
+        <v>809.1678779536135</v>
       </c>
       <c r="W18" t="n">
-        <v>726.795163937477</v>
+        <v>612.6465007868306</v>
       </c>
       <c r="X18" t="n">
-        <v>563.3178177041399</v>
+        <v>612.6465007868306</v>
       </c>
       <c r="Y18" t="n">
-        <v>460.6550098220404</v>
+        <v>472.953612140123</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>201.0074735568383</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="C19" t="n">
-        <v>29.03491043575429</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="D19" t="n">
-        <v>29.03491043575429</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="E19" t="n">
-        <v>29.03491043575429</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="F19" t="n">
-        <v>29.03491043575429</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="G19" t="n">
-        <v>29.03491043575429</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="H19" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="I19" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="J19" t="n">
-        <v>53.87488472994727</v>
+        <v>53.8748847299473</v>
       </c>
       <c r="K19" t="n">
-        <v>107.5129892737759</v>
+        <v>107.512989273776</v>
       </c>
       <c r="L19" t="n">
-        <v>181.0109882634347</v>
+        <v>181.0109882634348</v>
       </c>
       <c r="M19" t="n">
-        <v>259.0337940079584</v>
+        <v>259.0337940079585</v>
       </c>
       <c r="N19" t="n">
-        <v>336.4782397811395</v>
+        <v>336.4782397811396</v>
       </c>
       <c r="O19" t="n">
-        <v>404.7098432503367</v>
+        <v>404.7098432503369</v>
       </c>
       <c r="P19" t="n">
-        <v>459.9961970826225</v>
+        <v>459.9961970826226</v>
       </c>
       <c r="Q19" t="n">
-        <v>489.2405888496714</v>
+        <v>489.2405888496716</v>
       </c>
       <c r="R19" t="n">
-        <v>489.2405888496714</v>
+        <v>489.2405888496716</v>
       </c>
       <c r="S19" t="n">
-        <v>330.4910804646149</v>
+        <v>330.491080464615</v>
       </c>
       <c r="T19" t="n">
-        <v>330.4910804646149</v>
+        <v>330.491080464615</v>
       </c>
       <c r="U19" t="n">
-        <v>330.4910804646149</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="V19" t="n">
-        <v>330.4910804646149</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="W19" t="n">
-        <v>330.4910804646149</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="X19" t="n">
-        <v>201.0074735568383</v>
+        <v>167.0225940367805</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.0074735568383</v>
+        <v>167.0225940367805</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.5407128040204</v>
+        <v>351.9383083121732</v>
       </c>
       <c r="C20" t="n">
-        <v>351.9383083121731</v>
+        <v>351.9383083121732</v>
       </c>
       <c r="D20" t="n">
-        <v>351.9383083121731</v>
+        <v>351.9383083121732</v>
       </c>
       <c r="E20" t="n">
-        <v>351.9383083121731</v>
+        <v>351.9383083121732</v>
       </c>
       <c r="F20" t="n">
-        <v>29.03491043575429</v>
+        <v>351.9383083121732</v>
       </c>
       <c r="G20" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="H20" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="I20" t="n">
-        <v>49.86523077302923</v>
+        <v>49.86523077302948</v>
       </c>
       <c r="J20" t="n">
-        <v>141.894657804836</v>
+        <v>141.8946578048362</v>
       </c>
       <c r="K20" t="n">
-        <v>288.0679219725719</v>
+        <v>288.0679219725718</v>
       </c>
       <c r="L20" t="n">
         <v>475.4053179987477</v>
       </c>
       <c r="M20" t="n">
-        <v>689.0005507143569</v>
+        <v>689.000550714357</v>
       </c>
       <c r="N20" t="n">
-        <v>906.8017214638057</v>
+        <v>906.801721463806</v>
       </c>
       <c r="O20" t="n">
-        <v>1110.29821093573</v>
+        <v>1110.298210935731</v>
       </c>
       <c r="P20" t="n">
         <v>1278.37134400276</v>
@@ -5794,10 +5794,10 @@
         <v>1085.143117295868</v>
       </c>
       <c r="X20" t="n">
-        <v>718.5407128040204</v>
+        <v>718.5407128040206</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.5407128040204</v>
+        <v>351.9383083121732</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.5936884130346</v>
+        <v>252.6398178537061</v>
       </c>
       <c r="C21" t="n">
-        <v>59.08778493053934</v>
+        <v>252.6398178537061</v>
       </c>
       <c r="D21" t="n">
-        <v>59.08778493053934</v>
+        <v>148.7998593689911</v>
       </c>
       <c r="E21" t="n">
-        <v>59.08778493053934</v>
+        <v>44.09792564192834</v>
       </c>
       <c r="F21" t="n">
-        <v>59.08778493053934</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="G21" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="H21" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="I21" t="n">
-        <v>39.32059938368414</v>
+        <v>39.32059938368416</v>
       </c>
       <c r="J21" t="n">
-        <v>91.07479552862546</v>
+        <v>91.0747955286255</v>
       </c>
       <c r="K21" t="n">
-        <v>192.2311190452096</v>
+        <v>192.2311190452097</v>
       </c>
       <c r="L21" t="n">
-        <v>335.7756924166483</v>
+        <v>335.7756924166485</v>
       </c>
       <c r="M21" t="n">
-        <v>506.4309300589891</v>
+        <v>506.4309300589894</v>
       </c>
       <c r="N21" t="n">
-        <v>683.9443088400235</v>
+        <v>683.9443088400238</v>
       </c>
       <c r="O21" t="n">
-        <v>842.7236536513709</v>
+        <v>842.7236536513714</v>
       </c>
       <c r="P21" t="n">
-        <v>967.0164528322535</v>
+        <v>967.016452832254</v>
       </c>
       <c r="Q21" t="n">
         <v>1041.991028069201</v>
       </c>
       <c r="R21" t="n">
-        <v>1065.975367360917</v>
+        <v>1065.975367360918</v>
       </c>
       <c r="S21" t="n">
-        <v>1065.975367360917</v>
+        <v>1065.975367360918</v>
       </c>
       <c r="T21" t="n">
-        <v>1065.975367360917</v>
+        <v>1065.975367360918</v>
       </c>
       <c r="U21" t="n">
-        <v>881.2584393205959</v>
+        <v>881.2584393205964</v>
       </c>
       <c r="V21" t="n">
-        <v>676.2853004598621</v>
+        <v>881.2584393205964</v>
       </c>
       <c r="W21" t="n">
-        <v>479.7639232930793</v>
+        <v>684.7370621538136</v>
       </c>
       <c r="X21" t="n">
-        <v>316.2865770597422</v>
+        <v>521.2597159204764</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.5936884130346</v>
+        <v>381.5668272737688</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>194.6385628225138</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="C22" t="n">
-        <v>194.6385628225138</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="D22" t="n">
-        <v>194.6385628225138</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="E22" t="n">
-        <v>194.6385628225138</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="F22" t="n">
-        <v>194.6385628225138</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="G22" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="H22" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="I22" t="n">
-        <v>29.03491043575429</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="J22" t="n">
-        <v>53.87488472994727</v>
+        <v>53.8748847299473</v>
       </c>
       <c r="K22" t="n">
-        <v>107.5129892737759</v>
+        <v>107.512989273776</v>
       </c>
       <c r="L22" t="n">
-        <v>181.0109882634347</v>
+        <v>181.0109882634348</v>
       </c>
       <c r="M22" t="n">
-        <v>259.0337940079584</v>
+        <v>259.0337940079585</v>
       </c>
       <c r="N22" t="n">
-        <v>336.4782397811395</v>
+        <v>336.4782397811396</v>
       </c>
       <c r="O22" t="n">
-        <v>404.7098432503367</v>
+        <v>404.7098432503369</v>
       </c>
       <c r="P22" t="n">
-        <v>459.9961970826225</v>
+        <v>459.9961970826226</v>
       </c>
       <c r="Q22" t="n">
-        <v>489.2405888496714</v>
+        <v>489.2405888496716</v>
       </c>
       <c r="R22" t="n">
-        <v>489.2405888496714</v>
+        <v>489.2405888496716</v>
       </c>
       <c r="S22" t="n">
-        <v>330.4910804646149</v>
+        <v>489.2405888496716</v>
       </c>
       <c r="T22" t="n">
-        <v>330.4910804646149</v>
+        <v>489.2405888496716</v>
       </c>
       <c r="U22" t="n">
-        <v>330.4910804646149</v>
+        <v>209.0917758401035</v>
       </c>
       <c r="V22" t="n">
-        <v>330.4910804646149</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="W22" t="n">
-        <v>330.4910804646149</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="X22" t="n">
-        <v>194.6385628225138</v>
+        <v>29.03491043575431</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.6385628225138</v>
+        <v>29.03491043575431</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1941.952665179836</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="C23" t="n">
-        <v>1726.632034097501</v>
+        <v>1562.556511482776</v>
       </c>
       <c r="D23" t="n">
-        <v>1303.339413282501</v>
+        <v>1139.263890667776</v>
       </c>
       <c r="E23" t="n">
-        <v>877.3624734303589</v>
+        <v>713.2869508156335</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2382916197591</v>
+        <v>288.1627690050337</v>
       </c>
       <c r="G23" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H23" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I23" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J23" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K23" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L23" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N23" t="n">
         <v>1562.984812457614</v>
@@ -6007,34 +6007,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P23" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q23" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R23" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S23" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T23" t="n">
-        <v>2299.442080053586</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U23" t="n">
-        <v>2299.442080053586</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V23" t="n">
-        <v>1941.952665179836</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="W23" t="n">
-        <v>1941.952665179836</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="X23" t="n">
-        <v>1941.952665179836</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="Y23" t="n">
-        <v>1941.952665179836</v>
+        <v>1989.457241469476</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1296.682631392847</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C24" t="n">
-        <v>1179.176727910351</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D24" t="n">
-        <v>1075.336769425636</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E24" t="n">
-        <v>970.6348356985736</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F24" t="n">
-        <v>876.9890053814778</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G24" t="n">
-        <v>784.169167254175</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H24" t="n">
-        <v>742.7102753696215</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I24" t="n">
-        <v>768.3382977790127</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J24" t="n">
-        <v>862.1930296046339</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K24" t="n">
-        <v>1035.305874274163</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L24" t="n">
-        <v>1275.604870321989</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M24" t="n">
-        <v>1559.167955616383</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N24" t="n">
-        <v>1852.577516809035</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O24" t="n">
-        <v>2117.379226369922</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P24" t="n">
-        <v>2326.764320359098</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q24" t="n">
-        <v>2458.620841209086</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R24" t="n">
-        <v>2510.272196103407</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S24" t="n">
-        <v>2451.867725109046</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T24" t="n">
-        <v>2314.961407955104</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U24" t="n">
-        <v>2130.27439172047</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V24" t="n">
-        <v>1925.301252859737</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W24" t="n">
-        <v>1728.779875692954</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X24" t="n">
-        <v>1565.302529459617</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y24" t="n">
-        <v>1425.609640812909</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>641.8513381055109</v>
+        <v>385.4947799163814</v>
       </c>
       <c r="C25" t="n">
-        <v>641.8513381055109</v>
+        <v>213.5222167952975</v>
       </c>
       <c r="D25" t="n">
-        <v>478.5345652322816</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E25" t="n">
-        <v>312.3263593851351</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F25" t="n">
-        <v>215.4279251019238</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I25" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J25" t="n">
         <v>101.4579413382349</v>
@@ -6177,22 +6177,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T25" t="n">
-        <v>641.8513381055109</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U25" t="n">
-        <v>641.8513381055109</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="V25" t="n">
-        <v>641.8513381055109</v>
+        <v>611.8375482266395</v>
       </c>
       <c r="W25" t="n">
-        <v>641.8513381055109</v>
+        <v>611.8375482266395</v>
       </c>
       <c r="X25" t="n">
-        <v>641.8513381055109</v>
+        <v>611.8375482266395</v>
       </c>
       <c r="Y25" t="n">
-        <v>641.8513381055109</v>
+        <v>385.4947799163814</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1303.339413282501</v>
+        <v>2025.749773484393</v>
       </c>
       <c r="C26" t="n">
-        <v>1303.339413282501</v>
+        <v>1598.849043497693</v>
       </c>
       <c r="D26" t="n">
-        <v>1303.339413282501</v>
+        <v>1175.556422682694</v>
       </c>
       <c r="E26" t="n">
-        <v>877.3624734303589</v>
+        <v>749.5794828305513</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2382916197591</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="G26" t="n">
-        <v>50.20544392206813</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H26" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I26" t="n">
         <v>103.1440473010161</v>
@@ -6229,16 +6229,16 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998224</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230809</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M26" t="n">
         <v>1196.576905080623</v>
       </c>
       <c r="N26" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O26" t="n">
         <v>1906.806429336001</v>
@@ -6256,22 +6256,22 @@
         <v>2458.457769745854</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U26" t="n">
-        <v>1989.457241469475</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V26" t="n">
-        <v>1699.730762982155</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="W26" t="n">
-        <v>1303.339413282501</v>
+        <v>2025.749773484393</v>
       </c>
       <c r="X26" t="n">
-        <v>1303.339413282501</v>
+        <v>2025.749773484393</v>
       </c>
       <c r="Y26" t="n">
-        <v>1303.339413282501</v>
+        <v>2025.749773484393</v>
       </c>
     </row>
     <row r="27">
@@ -6296,13 +6296,13 @@
         <v>184.4841739339244</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H27" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J27" t="n">
         <v>169.6881981570805</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>221.6979649651039</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="C28" t="n">
-        <v>50.20544392206813</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="D28" t="n">
-        <v>50.20544392206813</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="E28" t="n">
-        <v>50.20544392206813</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="F28" t="n">
-        <v>50.20544392206813</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="G28" t="n">
-        <v>50.20544392206813</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="H28" t="n">
-        <v>50.20544392206813</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I28" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J28" t="n">
         <v>101.4579413382349</v>
@@ -6417,19 +6417,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U28" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V28" t="n">
-        <v>880.7705985416225</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W28" t="n">
-        <v>880.7705985416225</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="X28" t="n">
-        <v>638.2067019874276</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="Y28" t="n">
-        <v>411.8639336771696</v>
+        <v>318.9311092968235</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2247.627653696034</v>
+        <v>2252.101783876849</v>
       </c>
       <c r="C29" t="n">
-        <v>1820.726923709335</v>
+        <v>1825.201053890149</v>
       </c>
       <c r="D29" t="n">
-        <v>1397.434302894335</v>
+        <v>1577.589270380385</v>
       </c>
       <c r="E29" t="n">
         <v>1151.612330528242</v>
@@ -6490,25 +6490,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S29" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.627653696034</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.627653696034</v>
+        <v>2252.101783876849</v>
       </c>
       <c r="V29" t="n">
-        <v>2247.627653696034</v>
+        <v>2252.101783876849</v>
       </c>
       <c r="W29" t="n">
-        <v>2247.627653696034</v>
+        <v>2252.101783876849</v>
       </c>
       <c r="X29" t="n">
-        <v>2247.627653696034</v>
+        <v>2252.101783876849</v>
       </c>
       <c r="Y29" t="n">
-        <v>2247.627653696034</v>
+        <v>2252.101783876849</v>
       </c>
     </row>
     <row r="30">
@@ -6527,34 +6527,34 @@
         <v>382.8319379780831</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510204</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339246</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662147</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H30" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83346633145948</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J30" t="n">
-        <v>169.6881981570807</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K30" t="n">
-        <v>342.80104282661</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L30" t="n">
-        <v>583.1000388744362</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M30" t="n">
-        <v>866.6631241688303</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N30" t="n">
-        <v>1160.072685361482</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O30" t="n">
         <v>1424.874394922369</v>
@@ -6563,10 +6563,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q30" t="n">
-        <v>1766.116009761533</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R30" t="n">
-        <v>1817.767364655854</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S30" t="n">
         <v>1759.362893661493</v>
@@ -6578,7 +6578,7 @@
         <v>1437.769560272917</v>
       </c>
       <c r="V30" t="n">
-        <v>1232.796421412184</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W30" t="n">
         <v>1036.275044245401</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>489.7446042989517</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="C31" t="n">
-        <v>489.7446042989517</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="D31" t="n">
-        <v>489.7446042989517</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="E31" t="n">
-        <v>489.7446042989517</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="F31" t="n">
         <v>418.6853271074971</v>
@@ -6654,19 +6654,19 @@
         <v>489.7446042989517</v>
       </c>
       <c r="U31" t="n">
-        <v>489.7446042989517</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="V31" t="n">
-        <v>489.7446042989517</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="W31" t="n">
-        <v>489.7446042989517</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="X31" t="n">
-        <v>489.7446042989517</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="Y31" t="n">
-        <v>489.7446042989517</v>
+        <v>418.6853271074971</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>476.1823837742106</v>
+        <v>1328.20729557151</v>
       </c>
       <c r="C32" t="n">
-        <v>476.1823837742106</v>
+        <v>901.3065655848104</v>
       </c>
       <c r="D32" t="n">
-        <v>476.1823837742106</v>
+        <v>901.3065655848104</v>
       </c>
       <c r="E32" t="n">
-        <v>50.20544392206816</v>
+        <v>475.329625732668</v>
       </c>
       <c r="F32" t="n">
         <v>50.20544392206816</v>
@@ -6700,13 +6700,13 @@
         <v>103.1440473010161</v>
       </c>
       <c r="J32" t="n">
-        <v>265.8602102853081</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K32" t="n">
-        <v>517.9745679998226</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L32" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230816</v>
       </c>
       <c r="M32" t="n">
         <v>1196.576905080624</v>
@@ -6733,19 +6733,19 @@
         <v>2247.627653696034</v>
       </c>
       <c r="U32" t="n">
-        <v>1989.457241469476</v>
+        <v>2136.318644103416</v>
       </c>
       <c r="V32" t="n">
-        <v>1631.967826595725</v>
+        <v>2136.318644103416</v>
       </c>
       <c r="W32" t="n">
-        <v>1235.576476896072</v>
+        <v>1739.927294403763</v>
       </c>
       <c r="X32" t="n">
-        <v>823.8564780638192</v>
+        <v>1328.20729557151</v>
       </c>
       <c r="Y32" t="n">
-        <v>476.1823837742106</v>
+        <v>1328.20729557151</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C33" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D33" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E33" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F33" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G33" t="n">
         <v>91.66433580662168</v>
@@ -6776,22 +6776,22 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I33" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145933</v>
       </c>
       <c r="J33" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570806</v>
       </c>
       <c r="K33" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L33" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744364</v>
       </c>
       <c r="M33" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688306</v>
       </c>
       <c r="N33" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O33" t="n">
         <v>1424.874394922369</v>
@@ -6800,10 +6800,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q33" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R33" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S33" t="n">
         <v>1759.362893661493</v>
@@ -6812,19 +6812,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U33" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V33" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W33" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X33" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y33" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.20544392206816</v>
+        <v>290.7258951007091</v>
       </c>
       <c r="C34" t="n">
-        <v>50.20544392206816</v>
+        <v>290.7258951007091</v>
       </c>
       <c r="D34" t="n">
-        <v>50.20544392206816</v>
+        <v>290.7258951007091</v>
       </c>
       <c r="E34" t="n">
-        <v>50.20544392206816</v>
+        <v>290.7258951007091</v>
       </c>
       <c r="F34" t="n">
-        <v>50.20544392206816</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="G34" t="n">
-        <v>50.20544392206816</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="H34" t="n">
-        <v>50.20544392206816</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I34" t="n">
         <v>50.20544392206816</v>
@@ -6888,22 +6888,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T34" t="n">
-        <v>793.9645126140081</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="U34" t="n">
-        <v>793.9645126140081</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="V34" t="n">
-        <v>793.9645126140081</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="W34" t="n">
-        <v>519.112108786521</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="X34" t="n">
-        <v>276.5482122323261</v>
+        <v>480.8918638127747</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.20544392206816</v>
+        <v>480.8918638127747</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.20544392206816</v>
+        <v>1173.724861687094</v>
       </c>
       <c r="C35" t="n">
-        <v>50.20544392206816</v>
+        <v>1173.724861687094</v>
       </c>
       <c r="D35" t="n">
-        <v>50.20544392206816</v>
+        <v>750.4322408720941</v>
       </c>
       <c r="E35" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="F35" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="G35" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H35" t="n">
         <v>50.20544392206816</v>
@@ -6967,22 +6967,22 @@
         <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U35" t="n">
-        <v>1989.457241469476</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="V35" t="n">
-        <v>1631.967826595725</v>
+        <v>2100.968354872104</v>
       </c>
       <c r="W35" t="n">
-        <v>1235.576476896072</v>
+        <v>1704.577005172451</v>
       </c>
       <c r="X35" t="n">
-        <v>823.8564780638192</v>
+        <v>1292.857006340198</v>
       </c>
       <c r="Y35" t="n">
-        <v>418.5192080187095</v>
+        <v>1292.857006340198</v>
       </c>
     </row>
     <row r="36">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.20544392206816</v>
+        <v>222.1780070431521</v>
       </c>
       <c r="C37" t="n">
         <v>50.20544392206816</v>
@@ -7128,19 +7128,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U37" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V37" t="n">
-        <v>599.0591311496514</v>
+        <v>448.5207753534102</v>
       </c>
       <c r="W37" t="n">
-        <v>519.112108786521</v>
+        <v>448.5207753534102</v>
       </c>
       <c r="X37" t="n">
-        <v>276.5482122323261</v>
+        <v>448.5207753534102</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.20544392206816</v>
+        <v>222.1780070431521</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>476.1823837742106</v>
+        <v>2090.423831811878</v>
       </c>
       <c r="C38" t="n">
-        <v>476.1823837742106</v>
+        <v>1663.523101825178</v>
       </c>
       <c r="D38" t="n">
-        <v>476.1823837742106</v>
+        <v>1240.230481010178</v>
       </c>
       <c r="E38" t="n">
-        <v>50.20544392206816</v>
+        <v>814.2535411580358</v>
       </c>
       <c r="F38" t="n">
-        <v>50.20544392206816</v>
+        <v>389.129359347436</v>
       </c>
       <c r="G38" t="n">
         <v>50.20544392206816</v>
@@ -7171,25 +7171,25 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I38" t="n">
-        <v>103.1440473010166</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J38" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K38" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L38" t="n">
-        <v>836.7412585230815</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M38" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N38" t="n">
         <v>1562.984812457614</v>
       </c>
       <c r="O38" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P38" t="n">
         <v>2194.643812107885</v>
@@ -7201,25 +7201,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S38" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T38" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="U38" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="V38" t="n">
-        <v>2100.968354872104</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="W38" t="n">
-        <v>1713.088016943103</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="X38" t="n">
-        <v>1301.36801811085</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="Y38" t="n">
-        <v>896.0307480657407</v>
+        <v>2510.272196103408</v>
       </c>
     </row>
     <row r="39">
@@ -7235,13 +7235,13 @@
         <v>486.671896462798</v>
       </c>
       <c r="D39" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E39" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F39" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G39" t="n">
         <v>91.66433580662168</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.5222167952975</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C40" t="n">
-        <v>213.5222167952975</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D40" t="n">
         <v>50.20544392206816</v>
@@ -7359,25 +7359,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S40" t="n">
-        <v>728.6638647350633</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T40" t="n">
-        <v>489.7446042989517</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U40" t="n">
-        <v>403.6881855073631</v>
+        <v>606.7693151415262</v>
       </c>
       <c r="V40" t="n">
-        <v>403.6881855073631</v>
+        <v>325.0578477495551</v>
       </c>
       <c r="W40" t="n">
-        <v>403.6881855073631</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="X40" t="n">
-        <v>403.6881855073631</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="Y40" t="n">
-        <v>403.6881855073631</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1326.37573457591</v>
+        <v>1439.516305164129</v>
       </c>
       <c r="C41" t="n">
-        <v>899.4750045892104</v>
+        <v>1012.615575177429</v>
       </c>
       <c r="D41" t="n">
-        <v>476.1823837742106</v>
+        <v>1012.615575177429</v>
       </c>
       <c r="E41" t="n">
-        <v>50.20544392206816</v>
+        <v>586.6386353252864</v>
       </c>
       <c r="F41" t="n">
-        <v>50.20544392206816</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G41" t="n">
         <v>50.20544392206816</v>
@@ -7441,22 +7441,22 @@
         <v>2458.457769745855</v>
       </c>
       <c r="T41" t="n">
-        <v>2458.457769745855</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U41" t="n">
-        <v>2458.457769745855</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="V41" t="n">
-        <v>2100.968354872104</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="W41" t="n">
-        <v>1746.22409886744</v>
+        <v>1851.236303996381</v>
       </c>
       <c r="X41" t="n">
-        <v>1746.22409886744</v>
+        <v>1439.516305164129</v>
       </c>
       <c r="Y41" t="n">
-        <v>1746.22409886744</v>
+        <v>1439.516305164129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1296.682631392848</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C42" t="n">
-        <v>1179.176727910353</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D42" t="n">
-        <v>1075.336769425638</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E42" t="n">
-        <v>970.6348356985745</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F42" t="n">
-        <v>876.9890053814787</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G42" t="n">
-        <v>784.1691672541759</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H42" t="n">
-        <v>742.7102753696224</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I42" t="n">
-        <v>768.3382977790136</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J42" t="n">
-        <v>862.1930296046348</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K42" t="n">
-        <v>1035.305874274164</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L42" t="n">
-        <v>1275.60487032199</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M42" t="n">
-        <v>1559.167955616384</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N42" t="n">
-        <v>1852.577516809036</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O42" t="n">
-        <v>2117.379226369923</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P42" t="n">
-        <v>2326.764320359099</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q42" t="n">
-        <v>2458.620841209087</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R42" t="n">
-        <v>2510.272196103408</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S42" t="n">
-        <v>2451.867725109047</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T42" t="n">
-        <v>2314.961407955105</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U42" t="n">
-        <v>2130.274391720472</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V42" t="n">
-        <v>1925.301252859738</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W42" t="n">
-        <v>1728.779875692955</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X42" t="n">
-        <v>1565.302529459618</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1425.60964081291</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>756.7553071800832</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C43" t="n">
-        <v>756.7553071800832</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D43" t="n">
-        <v>756.7553071800832</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E43" t="n">
-        <v>590.5471013329367</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F43" t="n">
-        <v>418.6853271074971</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G43" t="n">
-        <v>253.4628459276414</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I43" t="n">
         <v>50.20544392206816</v>
@@ -7599,22 +7599,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T43" t="n">
-        <v>756.7553071800832</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="U43" t="n">
-        <v>756.7553071800832</v>
+        <v>641.8513381055109</v>
       </c>
       <c r="V43" t="n">
-        <v>756.7553071800832</v>
+        <v>360.1398707135398</v>
       </c>
       <c r="W43" t="n">
-        <v>756.7553071800832</v>
+        <v>85.28746688605281</v>
       </c>
       <c r="X43" t="n">
-        <v>756.7553071800832</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="Y43" t="n">
-        <v>756.7553071800832</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1443.990435344943</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="C44" t="n">
-        <v>1324.59918639981</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="D44" t="n">
-        <v>901.3065655848104</v>
+        <v>1260.489632138278</v>
       </c>
       <c r="E44" t="n">
-        <v>475.329625732668</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="F44" t="n">
-        <v>50.20544392206816</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G44" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H44" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010165</v>
       </c>
       <c r="J44" t="n">
         <v>265.8602102853083</v>
@@ -7678,22 +7678,22 @@
         <v>2510.272196103408</v>
       </c>
       <c r="T44" t="n">
-        <v>2510.272196103408</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U44" t="n">
-        <v>2252.101783876849</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="V44" t="n">
-        <v>2252.101783876849</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="W44" t="n">
-        <v>1855.710434177196</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="X44" t="n">
-        <v>1443.990435344943</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="Y44" t="n">
-        <v>1443.990435344943</v>
+        <v>1683.782252953278</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2354.97206585738</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="C46" t="n">
-        <v>2182.999502736296</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="D46" t="n">
-        <v>2182.999502736296</v>
+        <v>516.2348560014422</v>
       </c>
       <c r="E46" t="n">
-        <v>2016.791296889149</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="F46" t="n">
-        <v>1844.92952266371</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G46" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H46" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I46" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J46" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K46" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L46" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M46" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N46" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O46" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P46" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q46" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R46" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S46" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T46" t="n">
-        <v>2510.272196103408</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="U46" t="n">
-        <v>2510.272196103408</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="V46" t="n">
-        <v>2510.272196103408</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="W46" t="n">
-        <v>2510.272196103408</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="X46" t="n">
-        <v>2510.272196103408</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="Y46" t="n">
-        <v>2510.272196103408</v>
+        <v>679.5516288746715</v>
       </c>
     </row>
   </sheetData>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.522721292822375</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>14.5400340449251</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>10.96800596494193</v>
@@ -22558,10 +22558,10 @@
         <v>13.62548181171325</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>12.78125135058598</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03641654712531528</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>1.79595337992172</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>12.90330721005592</v>
+        <v>4.413415416532747</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8413873365495945</v>
+        <v>0.8413873365495768</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>3.498863183320896</v>
       </c>
       <c r="F5" t="n">
-        <v>2.654632722193647</v>
+        <v>13.71295113740216</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>59.69534223990411</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>56.12331415992094</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>207.1668578040436</v>
       </c>
       <c r="F11" t="n">
-        <v>57.93655954556505</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.8537774823832</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.46645473176487</v>
       </c>
       <c r="T11" t="n">
-        <v>212.4044229297792</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6560087652268</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49105575572787</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>143.0541284568531</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>102.8015588998678</v>
@@ -23348,10 +23348,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>92.34175259801627</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>66.18107509214927</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>137.3515246445759</v>
       </c>
       <c r="U12" t="n">
-        <v>118.3433121205998</v>
+        <v>12.6869740951264</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y12" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23424,19 +23424,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>144.993997811001</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.947615862892</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>136.6078067650159</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>79.32031935561108</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>17.48646004136224</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.1620133012059</v>
       </c>
       <c r="T13" t="n">
         <v>238.1424220369538</v>
@@ -23478,13 +23478,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.44451169555677</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.71350020168603</v>
+        <v>52.71350020168597</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>66.14344183924106</v>
       </c>
       <c r="D14" t="n">
-        <v>56.12331415992099</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.4044229297792</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>209.8306628072005</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>29.49105575572781</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23576,22 +23576,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
-        <v>92.70937201392488</v>
+        <v>74.26392114227929</v>
       </c>
       <c r="G15" t="n">
         <v>92.34175259801627</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>45.3914455098935</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>52.98478234519434</v>
+        <v>66.18107509214927</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>137.3515246445759</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.48646004136225</v>
+        <v>17.48646004136224</v>
       </c>
       <c r="S16" t="n">
-        <v>157.1620133012059</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>238.1424220369538</v>
+        <v>127.9651227333267</v>
       </c>
       <c r="U16" t="n">
         <v>277.3473248794723</v>
@@ -23718,10 +23718,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>196.8782856109754</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>376.0984114501847</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>56.12331415992082</v>
       </c>
       <c r="E17" t="n">
-        <v>274.8853295734891</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>57.93655954556505</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>35.91739703545454</v>
+        <v>35.91739703545437</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.46645473176487</v>
+        <v>70.46645473176486</v>
       </c>
       <c r="T17" t="n">
         <v>212.4044229297792</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6560087652268</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23800,7 +23800,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>38.34751689772969</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>92.34175259801627</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>45.3914455098935</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>66.18107509214927</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>137.3515246445759</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>131.5537517188133</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.65977995696201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23907,7 +23907,7 @@
         <v>163.947615862892</v>
       </c>
       <c r="H19" t="n">
-        <v>136.6078067650159</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>79.32031935561108</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.48646004136225</v>
+        <v>17.48646004136224</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>238.1424220369538</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3473248794723</v>
+        <v>115.5135233159161</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -23955,7 +23955,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>111.9494867499541</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -23971,7 +23971,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>59.69534223990416</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,10 +23980,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>101.1985760948391</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.8537774823832</v>
+        <v>79.17941358472854</v>
       </c>
       <c r="H20" t="n">
         <v>280.1228946992246</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.46645473176487</v>
+        <v>70.46645473176486</v>
       </c>
       <c r="T20" t="n">
         <v>212.4044229297792</v>
@@ -24031,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49105575572787</v>
+        <v>29.4910557557277</v>
       </c>
       <c r="X20" t="n">
-        <v>44.66641839700151</v>
+        <v>44.66641839700134</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>38.34751689772969</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>77.79698695981259</v>
       </c>
       <c r="G21" t="n">
-        <v>62.58940684817907</v>
+        <v>92.34175259801627</v>
       </c>
       <c r="H21" t="n">
-        <v>45.39144550989351</v>
+        <v>45.3914455098935</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.947615862892</v>
       </c>
       <c r="H22" t="n">
         <v>136.6078067650159</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>17.48646004136225</v>
+        <v>17.48646004136224</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.1620133012059</v>
       </c>
       <c r="T22" t="n">
         <v>238.1424220369538</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3473248794723</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>100.6380559677457</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>105.6442651229729</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -24208,7 +24208,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>209.4642979153217</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>162.4347673885781</v>
       </c>
       <c r="H23" t="n">
         <v>271.5073585269046</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24366,19 +24366,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>74.21370654280601</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
         <v>133.2527378018481</v>
@@ -24417,13 +24417,13 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U25" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>12.65063290621822</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -24432,7 +24432,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H26" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>67.08530702256621</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>219.6352280081031</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4752416572677021</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24615,13 +24615,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5702563680571</v>
+        <v>98.75667563256674</v>
       </c>
       <c r="H28" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>173.924028932183</v>
       </c>
       <c r="E29" t="n">
-        <v>178.3534178111894</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24849,7 +24849,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>99.79447206364512</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3267416342995</v>
+        <v>206.9780572147594</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -24919,7 +24919,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.012519220714</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>145.3927886076009</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>57.08654399794614</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.5702563680571</v>
@@ -25095,7 +25095,7 @@
         <v>133.2527378018481</v>
       </c>
       <c r="I34" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
-        <v>150.5920427634122</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3267416342995</v>
@@ -25137,13 +25137,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>80.78837803884414</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>51.01925419293985</v>
+        <v>297.7090574420413</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25171,7 +25171,7 @@
         <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25368,16 +25368,16 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>128.2937693960208</v>
       </c>
       <c r="W37" t="n">
-        <v>192.956327649713</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.012519220714</v>
+        <v>62.4778429495999</v>
       </c>
       <c r="H38" t="n">
         <v>271.5073585269046</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
         <v>208.7218148893222</v>
@@ -25450,16 +25450,16 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>8.42590165294547</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25599,19 +25599,19 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U40" t="n">
-        <v>192.1308870306268</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>287.8165997240218</v>
       </c>
       <c r="G41" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>271.5073585269046</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>41.23062275803937</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25794,19 +25794,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T43" t="n">
-        <v>113.7549293838266</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>205.4070548543081</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>304.4343862311513</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>313.9286418596857</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51718008137735</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>67.97209018366931</v>
@@ -26073,10 +26073,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S46" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5300678317505</v>
+        <v>187.9089543299626</v>
       </c>
       <c r="U46" t="n">
         <v>277.3267416342995</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>248125.0345763731</v>
+        <v>248125.0345763729</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>392329.9443010453</v>
+        <v>392329.9443010454</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>392329.9443010453</v>
+        <v>392329.9443010454</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>392329.9443010454</v>
+        <v>392329.9443010456</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>392329.9443010454</v>
+        <v>392329.9443010455</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>392329.9443010454</v>
+        <v>392329.9443010455</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345766.4791572546</v>
+        <v>345766.4791572547</v>
       </c>
       <c r="C2" t="n">
         <v>347645.156875475</v>
@@ -26322,25 +26322,25 @@
         <v>348625.903087998</v>
       </c>
       <c r="E2" t="n">
-        <v>129456.5397789772</v>
+        <v>129456.5397789773</v>
       </c>
       <c r="F2" t="n">
         <v>129456.5397789773</v>
       </c>
       <c r="G2" t="n">
-        <v>129456.5397789772</v>
+        <v>129456.5397789773</v>
       </c>
       <c r="H2" t="n">
-        <v>129456.5397789772</v>
+        <v>129456.5397789773</v>
       </c>
       <c r="I2" t="n">
+        <v>204693.8839831541</v>
+      </c>
+      <c r="J2" t="n">
+        <v>204693.8839831541</v>
+      </c>
+      <c r="K2" t="n">
         <v>204693.883983154</v>
-      </c>
-      <c r="J2" t="n">
-        <v>204693.883983154</v>
-      </c>
-      <c r="K2" t="n">
-        <v>204693.8839831541</v>
       </c>
       <c r="L2" t="n">
         <v>204693.8839831541</v>
@@ -26355,7 +26355,7 @@
         <v>204693.8839831541</v>
       </c>
       <c r="P2" t="n">
-        <v>204693.8839831541</v>
+        <v>204693.883983154</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64854.86355592436</v>
+        <v>64854.86355592435</v>
       </c>
       <c r="C3" t="n">
-        <v>14999.31942433283</v>
+        <v>14999.31942433286</v>
       </c>
       <c r="D3" t="n">
-        <v>6335.473445957301</v>
+        <v>6335.47344595727</v>
       </c>
       <c r="E3" t="n">
-        <v>322943.1393927427</v>
+        <v>322943.1393927428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>227893.6263494714</v>
+        <v>227893.6263494713</v>
       </c>
       <c r="J3" t="n">
-        <v>2117.141783023327</v>
+        <v>2117.141783023297</v>
       </c>
       <c r="K3" t="n">
-        <v>2606.267583152137</v>
+        <v>2606.267583152112</v>
       </c>
       <c r="L3" t="n">
-        <v>1339.207157169979</v>
+        <v>1339.207157169974</v>
       </c>
       <c r="M3" t="n">
-        <v>84586.48324465074</v>
+        <v>84586.48324465075</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,37 +26423,37 @@
         <v>304163.9298266678</v>
       </c>
       <c r="D4" t="n">
-        <v>303089.7348566834</v>
+        <v>303089.7348566833</v>
       </c>
       <c r="E4" t="n">
-        <v>254.9378429078438</v>
+        <v>254.9378429078439</v>
       </c>
       <c r="F4" t="n">
-        <v>254.9378429078438</v>
+        <v>254.937842907844</v>
       </c>
       <c r="G4" t="n">
-        <v>254.9378429078438</v>
+        <v>254.937842907844</v>
       </c>
       <c r="H4" t="n">
-        <v>254.9378429078438</v>
+        <v>254.937842907844</v>
       </c>
       <c r="I4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
@@ -26484,16 +26484,16 @@
         <v>29885.56426852864</v>
       </c>
       <c r="G5" t="n">
-        <v>29885.56426852864</v>
+        <v>29885.56426852865</v>
       </c>
       <c r="H5" t="n">
-        <v>29885.56426852864</v>
+        <v>29885.56426852865</v>
       </c>
       <c r="I5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="J5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659396</v>
       </c>
       <c r="K5" t="n">
         <v>50537.10295659397</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61544.01972820016</v>
+        <v>-61559.43273507267</v>
       </c>
       <c r="C6" t="n">
-        <v>-7940.005506180503</v>
+        <v>-7947.590689227323</v>
       </c>
       <c r="D6" t="n">
-        <v>2337.634416179862</v>
+        <v>2334.135675685338</v>
       </c>
       <c r="E6" t="n">
-        <v>-223627.101725202</v>
+        <v>-224543.8061461508</v>
       </c>
       <c r="F6" t="n">
-        <v>99316.03766754082</v>
+        <v>98399.33324659194</v>
       </c>
       <c r="G6" t="n">
-        <v>99316.03766754073</v>
+        <v>98399.33324659194</v>
       </c>
       <c r="H6" t="n">
-        <v>99316.03766754075</v>
+        <v>98399.33324659191</v>
       </c>
       <c r="I6" t="n">
-        <v>-74177.29911476537</v>
+        <v>-74780.51460152998</v>
       </c>
       <c r="J6" t="n">
-        <v>151599.1854516828</v>
+        <v>150995.9699649181</v>
       </c>
       <c r="K6" t="n">
-        <v>151110.059651554</v>
+        <v>150506.8441647892</v>
       </c>
       <c r="L6" t="n">
-        <v>152377.1200775362</v>
+        <v>151773.9045907714</v>
       </c>
       <c r="M6" t="n">
-        <v>69129.84399005542</v>
+        <v>68526.62850329065</v>
       </c>
       <c r="N6" t="n">
-        <v>153716.3272347061</v>
+        <v>153113.1117479414</v>
       </c>
       <c r="O6" t="n">
-        <v>153716.3272347061</v>
+        <v>153113.1117479414</v>
       </c>
       <c r="P6" t="n">
-        <v>153716.3272347062</v>
+        <v>153113.1117479413</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>64.4897407809798</v>
       </c>
       <c r="C3" t="n">
-        <v>77.36880956975661</v>
+        <v>77.36880956975664</v>
       </c>
       <c r="D3" t="n">
         <v>82.84723950768694</v>
@@ -26749,13 +26749,13 @@
         <v>358.6712081355676</v>
       </c>
       <c r="F3" t="n">
-        <v>358.6712081355676</v>
+        <v>358.6712081355677</v>
       </c>
       <c r="G3" t="n">
-        <v>358.6712081355676</v>
+        <v>358.6712081355677</v>
       </c>
       <c r="H3" t="n">
-        <v>358.6712081355676</v>
+        <v>358.6712081355677</v>
       </c>
       <c r="I3" t="n">
         <v>567.9342007257877</v>
@@ -26792,28 +26792,28 @@
         <v>8.091688641907758</v>
       </c>
       <c r="C4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="D4" t="n">
         <v>23.50971295904437</v>
       </c>
       <c r="E4" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469288</v>
       </c>
       <c r="F4" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469288</v>
       </c>
       <c r="G4" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469289</v>
       </c>
       <c r="H4" t="n">
-        <v>362.9363804469287</v>
+        <v>362.9363804469289</v>
       </c>
       <c r="I4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="J4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="K4" t="n">
         <v>627.5680490258519</v>
@@ -26962,13 +26962,13 @@
         <v>64.4897407809798</v>
       </c>
       <c r="C3" t="n">
-        <v>12.87906878877681</v>
+        <v>12.87906878877683</v>
       </c>
       <c r="D3" t="n">
-        <v>5.478429937930329</v>
+        <v>5.478429937930301</v>
       </c>
       <c r="E3" t="n">
-        <v>275.8239686278806</v>
+        <v>275.8239686278807</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>209.2629925902202</v>
+        <v>209.2629925902201</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>8.091688641907758</v>
       </c>
       <c r="C4" t="n">
-        <v>10.12661862839234</v>
+        <v>10.12661862839235</v>
       </c>
       <c r="D4" t="n">
-        <v>5.29140568874428</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4266674878843</v>
+        <v>339.4266674878844</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>264.631668578923</v>
       </c>
       <c r="J4" t="n">
-        <v>8.091688641907808</v>
+        <v>8.091688641907695</v>
       </c>
       <c r="K4" t="n">
-        <v>10.12661862839256</v>
+        <v>10.12661862839247</v>
       </c>
       <c r="L4" t="n">
-        <v>5.29140568874428</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="M4" t="n">
-        <v>339.4266674878843</v>
+        <v>339.4266674878844</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>8.091688641907758</v>
       </c>
       <c r="K4" t="n">
-        <v>10.12661862839234</v>
+        <v>10.12661862839235</v>
       </c>
       <c r="L4" t="n">
-        <v>5.29140568874428</v>
+        <v>5.291405688744263</v>
       </c>
       <c r="M4" t="n">
-        <v>339.4266674878843</v>
+        <v>339.4266674878844</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>292.2345970210142</v>
+        <v>299.2000267955134</v>
       </c>
       <c r="I2" t="n">
         <v>24.55296493005908</v>
@@ -27429,7 +27429,7 @@
         <v>18.74720796782874</v>
       </c>
       <c r="S2" t="n">
-        <v>104.3812721940738</v>
+        <v>97.4158424195746</v>
       </c>
       <c r="T2" t="n">
         <v>217.5814254356876</v>
@@ -27478,7 +27478,7 @@
         <v>51.50264919965579</v>
       </c>
       <c r="I3" t="n">
-        <v>3.30480692761402</v>
+        <v>11.39649556952178</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>15.06049703097857</v>
+        <v>6.968808389070816</v>
       </c>
       <c r="S3" t="n">
-        <v>77.93445730202359</v>
+        <v>69.84276866011584</v>
       </c>
       <c r="T3" t="n">
         <v>139.902022460603</v>
@@ -27517,13 +27517,13 @@
         <v>182.9113882128454</v>
       </c>
       <c r="V3" t="n">
-        <v>194.8317188302186</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>191.8833649833803</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>159.169774359269</v>
       </c>
       <c r="Y3" t="n">
         <v>138.2959597602405</v>
@@ -27636,10 +27636,10 @@
         <v>291.7043547567607</v>
       </c>
       <c r="I5" t="n">
-        <v>22.55690342461459</v>
+        <v>22.55690342461458</v>
       </c>
       <c r="J5" t="n">
-        <v>3.021643902788007</v>
+        <v>3.021643902788</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.536891551628983</v>
+        <v>2.536891551628969</v>
       </c>
       <c r="R5" t="n">
         <v>15.49488714450009</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>123.5486455514283</v>
       </c>
       <c r="C6" t="n">
-        <v>101.7883502050609</v>
+        <v>98.11253717737014</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>84.5832516295677</v>
       </c>
       <c r="E6" t="n">
-        <v>85.43660711949204</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
         <v>92.70937201392488</v>
@@ -27715,10 +27715,10 @@
         <v>51.2351047706663</v>
       </c>
       <c r="I6" t="n">
-        <v>10.44271547525859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.888458418784966</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.34053384443212</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>77.41990205371728</v>
       </c>
       <c r="T6" t="n">
-        <v>121.5720560939172</v>
+        <v>139.7903633642173</v>
       </c>
       <c r="U6" t="n">
         <v>182.9095657031111</v>
       </c>
       <c r="V6" t="n">
-        <v>184.7051002018263</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -27797,25 +27797,25 @@
         <v>94.57521008439309</v>
       </c>
       <c r="J7" t="n">
-        <v>10.77286693432815</v>
+        <v>10.77286693432814</v>
       </c>
       <c r="K7" t="n">
-        <v>4.755254677277751</v>
+        <v>4.755254677277744</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5871850422329361</v>
+        <v>1.176308884163515</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7054336060544593</v>
+        <v>0.7054336060544522</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.779019446119925</v>
+        <v>2.779019446119918</v>
       </c>
       <c r="P7" t="n">
-        <v>5.506790124936625</v>
+        <v>5.506790124936618</v>
       </c>
       <c r="Q7" t="n">
         <v>12.9368725197517</v>
@@ -27824,7 +27824,7 @@
         <v>40.29501189884586</v>
       </c>
       <c r="S7" t="n">
-        <v>166.0022870397414</v>
+        <v>165.4131631978108</v>
       </c>
       <c r="T7" t="n">
         <v>240.3098339603297</v>
@@ -27934,16 +27934,16 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
-        <v>112.0075427300111</v>
+        <v>92.82113148862588</v>
       </c>
       <c r="D9" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>85.85890127313252</v>
       </c>
       <c r="F9" t="n">
-        <v>92.70937201392488</v>
+        <v>69.1996590548805</v>
       </c>
       <c r="G9" t="n">
         <v>92.93503434185737</v>
@@ -27952,7 +27952,7 @@
         <v>51.12129814120099</v>
       </c>
       <c r="I9" t="n">
-        <v>10.03700156004394</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,16 +27988,16 @@
         <v>139.7428664103214</v>
       </c>
       <c r="U9" t="n">
-        <v>159.3990774945472</v>
+        <v>182.9087904535916</v>
       </c>
       <c r="V9" t="n">
-        <v>179.413694513082</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X9" t="n">
-        <v>138.3328598119593</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
         <v>138.2959597602405</v>
@@ -28034,7 +28034,7 @@
         <v>94.27811752316894</v>
       </c>
       <c r="J10" t="n">
-        <v>6.890578994209529</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K10" t="n">
         <v>3.60747870011792</v>
@@ -28061,7 +28061,7 @@
         <v>39.85081002223924</v>
       </c>
       <c r="S10" t="n">
-        <v>165.8301206431674</v>
+        <v>162.6462876149715</v>
       </c>
       <c r="T10" t="n">
         <v>240.2676231067096</v>
@@ -31135,7 +31135,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>30.11853412606043</v>
+        <v>25.56243121102539</v>
       </c>
       <c r="M3" t="n">
         <v>31.18846915423574</v>
@@ -31147,7 +31147,7 @@
         <v>31.26357836412998</v>
       </c>
       <c r="P3" t="n">
-        <v>21.93214552008099</v>
+        <v>26.48824843511603</v>
       </c>
       <c r="Q3" t="n">
         <v>17.70669260084562</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3110303902301771</v>
+        <v>0.3110303902301772</v>
       </c>
       <c r="H5" t="n">
-        <v>3.185339983944802</v>
+        <v>3.185339983944803</v>
       </c>
       <c r="I5" t="n">
-        <v>11.99099911934891</v>
+        <v>11.99099911934892</v>
       </c>
       <c r="J5" t="n">
         <v>26.39831558279852</v>
       </c>
       <c r="K5" t="n">
-        <v>39.56423200124192</v>
+        <v>39.56423200124193</v>
       </c>
       <c r="L5" t="n">
-        <v>49.08292830624871</v>
+        <v>49.08292830624873</v>
       </c>
       <c r="M5" t="n">
-        <v>54.61421500850462</v>
+        <v>54.61421500850464</v>
       </c>
       <c r="N5" t="n">
-        <v>55.49793010474612</v>
+        <v>55.49793010474614</v>
       </c>
       <c r="O5" t="n">
-        <v>52.40512166189479</v>
+        <v>52.40512166189481</v>
       </c>
       <c r="P5" t="n">
-        <v>44.72655890308729</v>
+        <v>44.7265589030873</v>
       </c>
       <c r="Q5" t="n">
-        <v>33.58778305296906</v>
+        <v>33.58778305296907</v>
       </c>
       <c r="R5" t="n">
         <v>19.53776275029638</v>
       </c>
       <c r="S5" t="n">
-        <v>7.087605017370167</v>
+        <v>7.08760501737017</v>
       </c>
       <c r="T5" t="n">
         <v>1.361535533232601</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02488243121841416</v>
+        <v>0.02488243121841417</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.166415930017967</v>
+        <v>0.1664159300179671</v>
       </c>
       <c r="H6" t="n">
-        <v>1.607227534647208</v>
+        <v>1.607227534647209</v>
       </c>
       <c r="I6" t="n">
-        <v>5.72967127474141</v>
+        <v>5.729671274741412</v>
       </c>
       <c r="J6" t="n">
-        <v>15.72265591454837</v>
+        <v>15.72265591454838</v>
       </c>
       <c r="K6" t="n">
-        <v>26.87252322575216</v>
+        <v>26.87252322575217</v>
       </c>
       <c r="L6" t="n">
-        <v>36.13342375236605</v>
+        <v>36.13342375236606</v>
       </c>
       <c r="M6" t="n">
-        <v>41.31508778262807</v>
+        <v>41.31508778262809</v>
       </c>
       <c r="N6" t="n">
         <v>30.74023446979461</v>
       </c>
       <c r="O6" t="n">
-        <v>39.5945831389678</v>
+        <v>39.59458313896781</v>
       </c>
       <c r="P6" t="n">
-        <v>31.77814368913268</v>
+        <v>31.77814368913269</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.24284748790751</v>
+        <v>21.24284748790752</v>
       </c>
       <c r="R6" t="n">
         <v>10.33238554971203</v>
       </c>
       <c r="S6" t="n">
-        <v>3.091102910640745</v>
+        <v>3.091102910640747</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6707729810811914</v>
+        <v>0.6707729810811918</v>
       </c>
       <c r="U6" t="n">
         <v>0.01094841644855047</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1395175254536594</v>
+        <v>0.1395175254536595</v>
       </c>
       <c r="H7" t="n">
-        <v>1.240437635397082</v>
+        <v>1.240437635397083</v>
       </c>
       <c r="I7" t="n">
-        <v>4.195672492733687</v>
+        <v>4.195672492733689</v>
       </c>
       <c r="J7" t="n">
-        <v>9.863889049573721</v>
+        <v>9.863889049573725</v>
       </c>
       <c r="K7" t="n">
         <v>16.20939977543425</v>
       </c>
       <c r="L7" t="n">
-        <v>20.7424510115377</v>
+        <v>20.74245101153771</v>
       </c>
       <c r="M7" t="n">
-        <v>21.87000628543136</v>
+        <v>21.87000628543137</v>
       </c>
       <c r="N7" t="n">
-        <v>21.34998641783137</v>
+        <v>21.34998641783138</v>
       </c>
       <c r="O7" t="n">
         <v>19.72016805230453</v>
       </c>
       <c r="P7" t="n">
-        <v>16.87401053304986</v>
+        <v>16.87401053304987</v>
       </c>
       <c r="Q7" t="n">
         <v>11.68269024503325</v>
       </c>
       <c r="R7" t="n">
-        <v>6.273215280852722</v>
+        <v>6.273215280852725</v>
       </c>
       <c r="S7" t="n">
-        <v>2.431409966315137</v>
+        <v>2.431409966315138</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5961203360292719</v>
+        <v>0.5961203360292722</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007610046842926888</v>
+        <v>0.00761004684292689</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31612,13 +31612,13 @@
         <v>38.69200558328342</v>
       </c>
       <c r="M9" t="n">
-        <v>45.15174553168937</v>
+        <v>38.6391521129061</v>
       </c>
       <c r="N9" t="n">
         <v>44.85274117258604</v>
       </c>
       <c r="O9" t="n">
-        <v>35.88565376587232</v>
+        <v>42.3982471846556</v>
       </c>
       <c r="P9" t="n">
         <v>34.02833126118561</v>
@@ -31755,10 +31755,10 @@
         <v>1.441894304062582</v>
       </c>
       <c r="H11" t="n">
-        <v>14.76680004148092</v>
+        <v>14.76680004148093</v>
       </c>
       <c r="I11" t="n">
-        <v>55.58863015737275</v>
+        <v>55.58863015737276</v>
       </c>
       <c r="J11" t="n">
         <v>122.3789766894317</v>
@@ -31767,10 +31767,10 @@
         <v>183.4143625804008</v>
       </c>
       <c r="L11" t="n">
-        <v>227.5417353883561</v>
+        <v>227.5417353883562</v>
       </c>
       <c r="M11" t="n">
-        <v>253.184023218229</v>
+        <v>253.1840232182291</v>
       </c>
       <c r="N11" t="n">
         <v>257.2808054096469</v>
@@ -31779,22 +31779,22 @@
         <v>242.9429689236246</v>
       </c>
       <c r="P11" t="n">
-        <v>207.3462032920795</v>
+        <v>207.3462032920796</v>
       </c>
       <c r="Q11" t="n">
         <v>155.7083635278383</v>
       </c>
       <c r="R11" t="n">
-        <v>90.57439307757124</v>
+        <v>90.57439307757126</v>
       </c>
       <c r="S11" t="n">
         <v>32.85716645382612</v>
       </c>
       <c r="T11" t="n">
-        <v>6.311892316033956</v>
+        <v>6.311892316033958</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1153515443250065</v>
+        <v>0.1153515443250066</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7714814665557491</v>
+        <v>0.7714814665557492</v>
       </c>
       <c r="H12" t="n">
-        <v>7.450886795419999</v>
+        <v>7.450886795420001</v>
       </c>
       <c r="I12" t="n">
-        <v>26.56197154588873</v>
+        <v>26.56197154588874</v>
       </c>
       <c r="J12" t="n">
-        <v>72.88808013630435</v>
+        <v>72.88808013630437</v>
       </c>
       <c r="K12" t="n">
-        <v>124.5773383955395</v>
+        <v>124.5773383955396</v>
       </c>
       <c r="L12" t="n">
-        <v>167.5096052712384</v>
+        <v>167.5096052712385</v>
       </c>
       <c r="M12" t="n">
         <v>195.4758084338843</v>
       </c>
       <c r="N12" t="n">
-        <v>200.6494714267077</v>
+        <v>200.6494714267078</v>
       </c>
       <c r="O12" t="n">
         <v>183.5550662993409</v>
@@ -31861,7 +31861,7 @@
         <v>147.3191232057202</v>
       </c>
       <c r="Q12" t="n">
-        <v>98.47893246771282</v>
+        <v>98.47893246771284</v>
       </c>
       <c r="R12" t="n">
         <v>47.89952473931223</v>
@@ -31873,7 +31873,7 @@
         <v>3.109611700722514</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05075535964182562</v>
+        <v>0.05075535964182563</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6467841458182365</v>
+        <v>0.6467841458182366</v>
       </c>
       <c r="H13" t="n">
-        <v>5.750499041911234</v>
+        <v>5.750499041911235</v>
       </c>
       <c r="I13" t="n">
         <v>19.4505632215157</v>
       </c>
       <c r="J13" t="n">
-        <v>45.72763910934932</v>
+        <v>45.72763910934933</v>
       </c>
       <c r="K13" t="n">
-        <v>75.14455803233692</v>
+        <v>75.14455803233693</v>
       </c>
       <c r="L13" t="n">
-        <v>96.15916291555855</v>
+        <v>96.15916291555857</v>
       </c>
       <c r="M13" t="n">
         <v>101.3863547849441</v>
       </c>
       <c r="N13" t="n">
-        <v>98.97561387780348</v>
+        <v>98.9756138778035</v>
       </c>
       <c r="O13" t="n">
-        <v>91.41999908347222</v>
+        <v>91.41999908347223</v>
       </c>
       <c r="P13" t="n">
         <v>78.22560250878014</v>
@@ -31992,46 +31992,46 @@
         <v>1.441894304062582</v>
       </c>
       <c r="H14" t="n">
-        <v>14.76680004148092</v>
+        <v>14.76680004148093</v>
       </c>
       <c r="I14" t="n">
-        <v>55.58863015737275</v>
+        <v>55.58863015737276</v>
       </c>
       <c r="J14" t="n">
         <v>122.3789766894317</v>
       </c>
       <c r="K14" t="n">
-        <v>183.4143625804008</v>
+        <v>183.4143625804009</v>
       </c>
       <c r="L14" t="n">
-        <v>227.5417353883561</v>
+        <v>227.5417353883562</v>
       </c>
       <c r="M14" t="n">
-        <v>253.184023218229</v>
+        <v>253.1840232182291</v>
       </c>
       <c r="N14" t="n">
-        <v>257.2808054096469</v>
+        <v>257.280805409647</v>
       </c>
       <c r="O14" t="n">
         <v>242.9429689236246</v>
       </c>
       <c r="P14" t="n">
-        <v>207.3462032920795</v>
+        <v>207.3462032920796</v>
       </c>
       <c r="Q14" t="n">
         <v>155.7083635278383</v>
       </c>
       <c r="R14" t="n">
-        <v>90.57439307757124</v>
+        <v>90.57439307757127</v>
       </c>
       <c r="S14" t="n">
-        <v>32.85716645382612</v>
+        <v>32.85716645382613</v>
       </c>
       <c r="T14" t="n">
-        <v>6.311892316033956</v>
+        <v>6.311892316033958</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1153515443250065</v>
+        <v>0.1153515443250066</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7714814665557491</v>
+        <v>0.7714814665557493</v>
       </c>
       <c r="H15" t="n">
-        <v>7.450886795419999</v>
+        <v>7.450886795420002</v>
       </c>
       <c r="I15" t="n">
-        <v>26.56197154588873</v>
+        <v>26.56197154588874</v>
       </c>
       <c r="J15" t="n">
-        <v>72.88808013630435</v>
+        <v>72.88808013630438</v>
       </c>
       <c r="K15" t="n">
-        <v>124.5773383955395</v>
+        <v>124.5773383955396</v>
       </c>
       <c r="L15" t="n">
-        <v>167.5096052712384</v>
+        <v>167.5096052712385</v>
       </c>
       <c r="M15" t="n">
-        <v>195.4758084338843</v>
+        <v>195.4758084338844</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6494714267077</v>
+        <v>200.6494714267078</v>
       </c>
       <c r="O15" t="n">
         <v>183.5550662993409</v>
@@ -32098,19 +32098,19 @@
         <v>147.3191232057202</v>
       </c>
       <c r="Q15" t="n">
-        <v>98.47893246771282</v>
+        <v>98.47893246771285</v>
       </c>
       <c r="R15" t="n">
-        <v>47.89952473931223</v>
+        <v>47.89952473931225</v>
       </c>
       <c r="S15" t="n">
         <v>14.32992987220875</v>
       </c>
       <c r="T15" t="n">
-        <v>3.109611700722514</v>
+        <v>3.109611700722515</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05075535964182562</v>
+        <v>0.05075535964182563</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6467841458182365</v>
+        <v>0.6467841458182367</v>
       </c>
       <c r="H16" t="n">
-        <v>5.750499041911234</v>
+        <v>5.750499041911236</v>
       </c>
       <c r="I16" t="n">
-        <v>19.4505632215157</v>
+        <v>19.45056322151571</v>
       </c>
       <c r="J16" t="n">
-        <v>45.72763910934932</v>
+        <v>45.72763910934933</v>
       </c>
       <c r="K16" t="n">
-        <v>75.14455803233692</v>
+        <v>75.14455803233695</v>
       </c>
       <c r="L16" t="n">
-        <v>96.15916291555855</v>
+        <v>96.1591629155586</v>
       </c>
       <c r="M16" t="n">
         <v>101.3863547849441</v>
       </c>
       <c r="N16" t="n">
-        <v>98.97561387780348</v>
+        <v>98.97561387780351</v>
       </c>
       <c r="O16" t="n">
-        <v>91.41999908347222</v>
+        <v>91.41999908347225</v>
       </c>
       <c r="P16" t="n">
-        <v>78.22560250878014</v>
+        <v>78.22560250878016</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.1593524284707</v>
+        <v>54.15935242847072</v>
       </c>
       <c r="R16" t="n">
-        <v>29.08176713833634</v>
+        <v>29.08176713833635</v>
       </c>
       <c r="S16" t="n">
         <v>11.27168370485054</v>
       </c>
       <c r="T16" t="n">
-        <v>2.763532259405192</v>
+        <v>2.763532259405193</v>
       </c>
       <c r="U16" t="n">
         <v>0.03527913522644931</v>
@@ -32229,46 +32229,46 @@
         <v>1.441894304062582</v>
       </c>
       <c r="H17" t="n">
-        <v>14.76680004148092</v>
+        <v>14.76680004148093</v>
       </c>
       <c r="I17" t="n">
-        <v>55.58863015737275</v>
+        <v>55.58863015737276</v>
       </c>
       <c r="J17" t="n">
         <v>122.3789766894317</v>
       </c>
       <c r="K17" t="n">
-        <v>183.4143625804008</v>
+        <v>183.4143625804009</v>
       </c>
       <c r="L17" t="n">
-        <v>227.5417353883561</v>
+        <v>227.5417353883562</v>
       </c>
       <c r="M17" t="n">
-        <v>253.184023218229</v>
+        <v>253.1840232182291</v>
       </c>
       <c r="N17" t="n">
-        <v>257.2808054096469</v>
+        <v>257.280805409647</v>
       </c>
       <c r="O17" t="n">
         <v>242.9429689236246</v>
       </c>
       <c r="P17" t="n">
-        <v>207.3462032920795</v>
+        <v>207.3462032920796</v>
       </c>
       <c r="Q17" t="n">
         <v>155.7083635278383</v>
       </c>
       <c r="R17" t="n">
-        <v>90.57439307757124</v>
+        <v>90.57439307757127</v>
       </c>
       <c r="S17" t="n">
-        <v>32.85716645382612</v>
+        <v>32.85716645382613</v>
       </c>
       <c r="T17" t="n">
-        <v>6.311892316033956</v>
+        <v>6.311892316033958</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1153515443250065</v>
+        <v>0.1153515443250066</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7714814665557491</v>
+        <v>0.7714814665557493</v>
       </c>
       <c r="H18" t="n">
-        <v>7.450886795419999</v>
+        <v>7.450886795420002</v>
       </c>
       <c r="I18" t="n">
-        <v>26.56197154588873</v>
+        <v>26.56197154588874</v>
       </c>
       <c r="J18" t="n">
-        <v>72.88808013630435</v>
+        <v>72.88808013630438</v>
       </c>
       <c r="K18" t="n">
-        <v>124.5773383955395</v>
+        <v>124.5773383955396</v>
       </c>
       <c r="L18" t="n">
-        <v>167.5096052712384</v>
+        <v>167.5096052712385</v>
       </c>
       <c r="M18" t="n">
-        <v>195.4758084338843</v>
+        <v>195.4758084338844</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6494714267077</v>
+        <v>200.6494714267078</v>
       </c>
       <c r="O18" t="n">
         <v>183.5550662993409</v>
@@ -32335,19 +32335,19 @@
         <v>147.3191232057202</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.47893246771282</v>
+        <v>98.47893246771285</v>
       </c>
       <c r="R18" t="n">
-        <v>47.89952473931223</v>
+        <v>47.89952473931225</v>
       </c>
       <c r="S18" t="n">
         <v>14.32992987220875</v>
       </c>
       <c r="T18" t="n">
-        <v>3.109611700722514</v>
+        <v>3.109611700722515</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05075535964182562</v>
+        <v>0.05075535964182563</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6467841458182365</v>
+        <v>0.6467841458182367</v>
       </c>
       <c r="H19" t="n">
-        <v>5.750499041911234</v>
+        <v>5.750499041911236</v>
       </c>
       <c r="I19" t="n">
-        <v>19.4505632215157</v>
+        <v>19.45056322151571</v>
       </c>
       <c r="J19" t="n">
-        <v>45.72763910934932</v>
+        <v>45.72763910934933</v>
       </c>
       <c r="K19" t="n">
-        <v>75.14455803233692</v>
+        <v>75.14455803233695</v>
       </c>
       <c r="L19" t="n">
-        <v>96.15916291555855</v>
+        <v>96.1591629155586</v>
       </c>
       <c r="M19" t="n">
         <v>101.3863547849441</v>
       </c>
       <c r="N19" t="n">
-        <v>98.97561387780348</v>
+        <v>98.97561387780351</v>
       </c>
       <c r="O19" t="n">
-        <v>91.41999908347222</v>
+        <v>91.41999908347225</v>
       </c>
       <c r="P19" t="n">
-        <v>78.22560250878014</v>
+        <v>78.22560250878016</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.1593524284707</v>
+        <v>54.15935242847072</v>
       </c>
       <c r="R19" t="n">
-        <v>29.08176713833634</v>
+        <v>29.08176713833635</v>
       </c>
       <c r="S19" t="n">
         <v>11.27168370485054</v>
       </c>
       <c r="T19" t="n">
-        <v>2.763532259405192</v>
+        <v>2.763532259405193</v>
       </c>
       <c r="U19" t="n">
         <v>0.03527913522644931</v>
@@ -32466,46 +32466,46 @@
         <v>1.441894304062582</v>
       </c>
       <c r="H20" t="n">
-        <v>14.76680004148092</v>
+        <v>14.76680004148093</v>
       </c>
       <c r="I20" t="n">
-        <v>55.58863015737275</v>
+        <v>55.58863015737276</v>
       </c>
       <c r="J20" t="n">
         <v>122.3789766894317</v>
       </c>
       <c r="K20" t="n">
-        <v>183.4143625804008</v>
+        <v>183.4143625804009</v>
       </c>
       <c r="L20" t="n">
-        <v>227.5417353883561</v>
+        <v>227.5417353883562</v>
       </c>
       <c r="M20" t="n">
-        <v>253.184023218229</v>
+        <v>253.1840232182291</v>
       </c>
       <c r="N20" t="n">
-        <v>257.2808054096469</v>
+        <v>257.280805409647</v>
       </c>
       <c r="O20" t="n">
         <v>242.9429689236246</v>
       </c>
       <c r="P20" t="n">
-        <v>207.3462032920795</v>
+        <v>207.3462032920796</v>
       </c>
       <c r="Q20" t="n">
         <v>155.7083635278383</v>
       </c>
       <c r="R20" t="n">
-        <v>90.57439307757124</v>
+        <v>90.57439307757127</v>
       </c>
       <c r="S20" t="n">
-        <v>32.85716645382612</v>
+        <v>32.85716645382613</v>
       </c>
       <c r="T20" t="n">
-        <v>6.311892316033956</v>
+        <v>6.311892316033958</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1153515443250065</v>
+        <v>0.1153515443250066</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7714814665557491</v>
+        <v>0.7714814665557493</v>
       </c>
       <c r="H21" t="n">
-        <v>7.450886795419999</v>
+        <v>7.450886795420002</v>
       </c>
       <c r="I21" t="n">
-        <v>26.56197154588873</v>
+        <v>26.56197154588874</v>
       </c>
       <c r="J21" t="n">
-        <v>72.88808013630435</v>
+        <v>72.88808013630438</v>
       </c>
       <c r="K21" t="n">
-        <v>124.5773383955395</v>
+        <v>124.5773383955396</v>
       </c>
       <c r="L21" t="n">
-        <v>167.5096052712384</v>
+        <v>167.5096052712385</v>
       </c>
       <c r="M21" t="n">
-        <v>195.4758084338843</v>
+        <v>195.4758084338844</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6494714267077</v>
+        <v>200.6494714267078</v>
       </c>
       <c r="O21" t="n">
         <v>183.5550662993409</v>
@@ -32572,19 +32572,19 @@
         <v>147.3191232057202</v>
       </c>
       <c r="Q21" t="n">
-        <v>98.47893246771282</v>
+        <v>98.47893246771285</v>
       </c>
       <c r="R21" t="n">
-        <v>47.89952473931223</v>
+        <v>47.89952473931225</v>
       </c>
       <c r="S21" t="n">
         <v>14.32992987220875</v>
       </c>
       <c r="T21" t="n">
-        <v>3.109611700722514</v>
+        <v>3.109611700722515</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05075535964182562</v>
+        <v>0.05075535964182563</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6467841458182365</v>
+        <v>0.6467841458182367</v>
       </c>
       <c r="H22" t="n">
-        <v>5.750499041911234</v>
+        <v>5.750499041911236</v>
       </c>
       <c r="I22" t="n">
-        <v>19.4505632215157</v>
+        <v>19.45056322151571</v>
       </c>
       <c r="J22" t="n">
-        <v>45.72763910934932</v>
+        <v>45.72763910934933</v>
       </c>
       <c r="K22" t="n">
-        <v>75.14455803233692</v>
+        <v>75.14455803233695</v>
       </c>
       <c r="L22" t="n">
-        <v>96.15916291555855</v>
+        <v>96.1591629155586</v>
       </c>
       <c r="M22" t="n">
         <v>101.3863547849441</v>
       </c>
       <c r="N22" t="n">
-        <v>98.97561387780348</v>
+        <v>98.97561387780351</v>
       </c>
       <c r="O22" t="n">
-        <v>91.41999908347222</v>
+        <v>91.41999908347225</v>
       </c>
       <c r="P22" t="n">
-        <v>78.22560250878014</v>
+        <v>78.22560250878016</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.1593524284707</v>
+        <v>54.15935242847072</v>
       </c>
       <c r="R22" t="n">
-        <v>29.08176713833634</v>
+        <v>29.08176713833635</v>
       </c>
       <c r="S22" t="n">
         <v>11.27168370485054</v>
       </c>
       <c r="T22" t="n">
-        <v>2.763532259405192</v>
+        <v>2.763532259405193</v>
       </c>
       <c r="U22" t="n">
         <v>0.03527913522644931</v>
@@ -34365,10 +34365,10 @@
         <v>23.38233621380089</v>
       </c>
       <c r="I44" t="n">
-        <v>88.02123929037562</v>
+        <v>88.02123929037602</v>
       </c>
       <c r="J44" t="n">
-        <v>193.7797200757806</v>
+        <v>193.7797200757802</v>
       </c>
       <c r="K44" t="n">
         <v>290.4255681832077</v>
@@ -34692,7 +34692,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.965429774499164</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -34725,7 +34725,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.965429774499166</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7.603447411830871</v>
+        <v>3.047344496795835</v>
       </c>
       <c r="M3" t="n">
         <v>8.091688641907758</v>
@@ -34795,7 +34795,7 @@
         <v>8.091688641907758</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1613043152523296</v>
+        <v>4.717407230287364</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.799631206432579</v>
+        <v>3.799631206432593</v>
       </c>
       <c r="L5" t="n">
-        <v>10.77088587362579</v>
+        <v>10.77088587362581</v>
       </c>
       <c r="M5" t="n">
-        <v>17.18295210907281</v>
+        <v>17.18295210907283</v>
       </c>
       <c r="N5" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="O5" t="n">
-        <v>15.01416230587069</v>
+        <v>15.01416230587071</v>
       </c>
       <c r="P5" t="n">
-        <v>7.151197092855988</v>
+        <v>7.151197092856002</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.473289392418824</v>
+        <v>4.473289392418835</v>
       </c>
       <c r="L6" t="n">
-        <v>13.61833703813649</v>
+        <v>13.61833703813651</v>
       </c>
       <c r="M6" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030011</v>
       </c>
       <c r="N6" t="n">
         <v>9.397206256252952</v>
       </c>
       <c r="O6" t="n">
-        <v>16.42269341674558</v>
+        <v>16.42269341674559</v>
       </c>
       <c r="P6" t="n">
-        <v>10.00730248430401</v>
+        <v>10.00730248430402</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6010854422309819</v>
+        <v>0.601085442230989</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>16.17691886905386</v>
       </c>
       <c r="M9" t="n">
-        <v>22.05496501936139</v>
+        <v>15.54237160057813</v>
       </c>
       <c r="N9" t="n">
         <v>23.50971295904437</v>
       </c>
       <c r="O9" t="n">
-        <v>12.7137640436501</v>
+        <v>19.22635746243337</v>
       </c>
       <c r="P9" t="n">
         <v>12.25749005635694</v>
@@ -35409,7 +35409,7 @@
         <v>21.04072761340925</v>
       </c>
       <c r="J11" t="n">
-        <v>92.95901720384515</v>
+        <v>92.95901720384518</v>
       </c>
       <c r="K11" t="n">
         <v>147.6497617855915</v>
@@ -35421,19 +35421,19 @@
         <v>215.7527603187972</v>
       </c>
       <c r="N11" t="n">
-        <v>220.0011825752008</v>
+        <v>220.0011825752009</v>
       </c>
       <c r="O11" t="n">
         <v>205.5520095676005</v>
       </c>
       <c r="P11" t="n">
-        <v>169.7708414818482</v>
+        <v>169.7708414818483</v>
       </c>
       <c r="Q11" t="n">
         <v>119.5836889232402</v>
       </c>
       <c r="R11" t="n">
-        <v>55.54174318277477</v>
+        <v>55.54174318277479</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.38958479588873</v>
+        <v>10.38958479588874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.27696580297102</v>
+        <v>52.27696580297103</v>
       </c>
       <c r="K12" t="n">
         <v>102.1781045622062</v>
@@ -35503,16 +35503,16 @@
         <v>179.3064432131661</v>
       </c>
       <c r="O12" t="n">
-        <v>160.3831765771186</v>
+        <v>160.3831765771187</v>
       </c>
       <c r="P12" t="n">
         <v>125.5482820008916</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.73189417873432</v>
+        <v>75.73189417873434</v>
       </c>
       <c r="R12" t="n">
-        <v>24.22660534516808</v>
+        <v>24.22660534516809</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.09088312544745</v>
+        <v>25.09088312544746</v>
       </c>
       <c r="K13" t="n">
-        <v>54.17990357962492</v>
+        <v>54.17990357962493</v>
       </c>
       <c r="L13" t="n">
-        <v>74.24040301985733</v>
+        <v>74.24040301985735</v>
       </c>
       <c r="M13" t="n">
-        <v>78.81091489345829</v>
+        <v>78.8109148934583</v>
       </c>
       <c r="N13" t="n">
-        <v>78.22671290220309</v>
+        <v>78.2267129022031</v>
       </c>
       <c r="O13" t="n">
-        <v>68.92081158504777</v>
+        <v>68.92081158504779</v>
       </c>
       <c r="P13" t="n">
         <v>55.84480185079366</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.53978966368575</v>
+        <v>29.53978966368576</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>21.04072761340925</v>
+        <v>21.04072761340926</v>
       </c>
       <c r="J14" t="n">
-        <v>92.95901720384515</v>
+        <v>92.95901720384521</v>
       </c>
       <c r="K14" t="n">
         <v>147.6497617855915</v>
       </c>
       <c r="L14" t="n">
-        <v>189.2296929557332</v>
+        <v>189.2296929557333</v>
       </c>
       <c r="M14" t="n">
-        <v>215.7527603187972</v>
+        <v>215.7527603187973</v>
       </c>
       <c r="N14" t="n">
-        <v>220.0011825752008</v>
+        <v>220.0011825752009</v>
       </c>
       <c r="O14" t="n">
         <v>205.5520095676005</v>
       </c>
       <c r="P14" t="n">
-        <v>169.7708414818482</v>
+        <v>169.7708414818483</v>
       </c>
       <c r="Q14" t="n">
-        <v>119.5836889232402</v>
+        <v>119.5836889232403</v>
       </c>
       <c r="R14" t="n">
-        <v>55.54174318277477</v>
+        <v>55.5417431827748</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.38958479588873</v>
+        <v>10.38958479588874</v>
       </c>
       <c r="J15" t="n">
-        <v>52.27696580297102</v>
+        <v>52.27696580297105</v>
       </c>
       <c r="K15" t="n">
         <v>102.1781045622062</v>
@@ -35734,22 +35734,22 @@
         <v>144.9945185570089</v>
       </c>
       <c r="M15" t="n">
-        <v>172.3790279215563</v>
+        <v>172.3790279215564</v>
       </c>
       <c r="N15" t="n">
         <v>179.3064432131661</v>
       </c>
       <c r="O15" t="n">
-        <v>160.3831765771186</v>
+        <v>160.3831765771187</v>
       </c>
       <c r="P15" t="n">
         <v>125.5482820008916</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.73189417873432</v>
+        <v>75.73189417873435</v>
       </c>
       <c r="R15" t="n">
-        <v>24.22660534516808</v>
+        <v>24.2266053451681</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.09088312544745</v>
+        <v>25.09088312544747</v>
       </c>
       <c r="K16" t="n">
-        <v>54.17990357962492</v>
+        <v>54.17990357962495</v>
       </c>
       <c r="L16" t="n">
-        <v>74.24040301985733</v>
+        <v>74.24040301985738</v>
       </c>
       <c r="M16" t="n">
-        <v>78.81091489345829</v>
+        <v>78.81091489345832</v>
       </c>
       <c r="N16" t="n">
-        <v>78.22671290220309</v>
+        <v>78.22671290220312</v>
       </c>
       <c r="O16" t="n">
-        <v>68.92081158504777</v>
+        <v>68.9208115850478</v>
       </c>
       <c r="P16" t="n">
-        <v>55.84480185079366</v>
+        <v>55.84480185079367</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.53978966368575</v>
+        <v>29.53978966368577</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>21.04072761340925</v>
+        <v>21.04072761340926</v>
       </c>
       <c r="J17" t="n">
-        <v>92.95901720384515</v>
+        <v>92.95901720384521</v>
       </c>
       <c r="K17" t="n">
         <v>147.6497617855915</v>
       </c>
       <c r="L17" t="n">
-        <v>189.2296929557332</v>
+        <v>189.2296929557333</v>
       </c>
       <c r="M17" t="n">
-        <v>215.7527603187972</v>
+        <v>215.7527603187973</v>
       </c>
       <c r="N17" t="n">
-        <v>220.0011825752008</v>
+        <v>220.0011825752009</v>
       </c>
       <c r="O17" t="n">
         <v>205.5520095676005</v>
       </c>
       <c r="P17" t="n">
-        <v>169.7708414818482</v>
+        <v>169.7708414818483</v>
       </c>
       <c r="Q17" t="n">
-        <v>119.5836889232402</v>
+        <v>119.5836889232403</v>
       </c>
       <c r="R17" t="n">
-        <v>55.54174318277477</v>
+        <v>55.5417431827748</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.38958479588873</v>
+        <v>10.38958479588874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.27696580297102</v>
+        <v>52.27696580297105</v>
       </c>
       <c r="K18" t="n">
         <v>102.1781045622062</v>
@@ -35971,22 +35971,22 @@
         <v>144.9945185570089</v>
       </c>
       <c r="M18" t="n">
-        <v>172.3790279215563</v>
+        <v>172.3790279215564</v>
       </c>
       <c r="N18" t="n">
         <v>179.3064432131661</v>
       </c>
       <c r="O18" t="n">
-        <v>160.3831765771186</v>
+        <v>160.3831765771187</v>
       </c>
       <c r="P18" t="n">
         <v>125.5482820008916</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.73189417873432</v>
+        <v>75.73189417873435</v>
       </c>
       <c r="R18" t="n">
-        <v>24.22660534516808</v>
+        <v>24.2266053451681</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.09088312544745</v>
+        <v>25.09088312544747</v>
       </c>
       <c r="K19" t="n">
-        <v>54.17990357962492</v>
+        <v>54.17990357962495</v>
       </c>
       <c r="L19" t="n">
-        <v>74.24040301985733</v>
+        <v>74.24040301985738</v>
       </c>
       <c r="M19" t="n">
-        <v>78.81091489345829</v>
+        <v>78.81091489345832</v>
       </c>
       <c r="N19" t="n">
-        <v>78.22671290220309</v>
+        <v>78.22671290220312</v>
       </c>
       <c r="O19" t="n">
-        <v>68.92081158504777</v>
+        <v>68.9208115850478</v>
       </c>
       <c r="P19" t="n">
-        <v>55.84480185079366</v>
+        <v>55.84480185079367</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.53978966368575</v>
+        <v>29.53978966368577</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>21.04072761340925</v>
+        <v>21.04072761340926</v>
       </c>
       <c r="J20" t="n">
-        <v>92.95901720384515</v>
+        <v>92.95901720384521</v>
       </c>
       <c r="K20" t="n">
         <v>147.6497617855915</v>
       </c>
       <c r="L20" t="n">
-        <v>189.2296929557332</v>
+        <v>189.2296929557333</v>
       </c>
       <c r="M20" t="n">
-        <v>215.7527603187972</v>
+        <v>215.7527603187973</v>
       </c>
       <c r="N20" t="n">
-        <v>220.0011825752008</v>
+        <v>220.0011825752009</v>
       </c>
       <c r="O20" t="n">
         <v>205.5520095676005</v>
       </c>
       <c r="P20" t="n">
-        <v>169.7708414818482</v>
+        <v>169.7708414818483</v>
       </c>
       <c r="Q20" t="n">
-        <v>119.5836889232402</v>
+        <v>119.5836889232403</v>
       </c>
       <c r="R20" t="n">
-        <v>55.54174318277477</v>
+        <v>55.5417431827748</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.38958479588873</v>
+        <v>10.38958479588874</v>
       </c>
       <c r="J21" t="n">
-        <v>52.27696580297102</v>
+        <v>52.27696580297105</v>
       </c>
       <c r="K21" t="n">
         <v>102.1781045622062</v>
@@ -36208,22 +36208,22 @@
         <v>144.9945185570089</v>
       </c>
       <c r="M21" t="n">
-        <v>172.3790279215563</v>
+        <v>172.3790279215564</v>
       </c>
       <c r="N21" t="n">
         <v>179.3064432131661</v>
       </c>
       <c r="O21" t="n">
-        <v>160.3831765771186</v>
+        <v>160.3831765771187</v>
       </c>
       <c r="P21" t="n">
         <v>125.5482820008916</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.73189417873432</v>
+        <v>75.73189417873435</v>
       </c>
       <c r="R21" t="n">
-        <v>24.22660534516808</v>
+        <v>24.2266053451681</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.09088312544745</v>
+        <v>25.09088312544747</v>
       </c>
       <c r="K22" t="n">
-        <v>54.17990357962492</v>
+        <v>54.17990357962495</v>
       </c>
       <c r="L22" t="n">
-        <v>74.24040301985733</v>
+        <v>74.24040301985738</v>
       </c>
       <c r="M22" t="n">
-        <v>78.81091489345829</v>
+        <v>78.81091489345832</v>
       </c>
       <c r="N22" t="n">
-        <v>78.22671290220309</v>
+        <v>78.22671290220312</v>
       </c>
       <c r="O22" t="n">
-        <v>68.92081158504777</v>
+        <v>68.9208115850478</v>
       </c>
       <c r="P22" t="n">
-        <v>55.84480185079366</v>
+        <v>55.84480185079367</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.53978966368575</v>
+        <v>29.53978966368577</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>53.47333674641212</v>
+        <v>53.47333674641251</v>
       </c>
       <c r="J44" t="n">
-        <v>164.3597605901941</v>
+        <v>164.3597605901937</v>
       </c>
       <c r="K44" t="n">
         <v>254.6609673883984</v>
